--- a/gogn (1).xlsx
+++ b/gogn (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\center1.ad.local\dfs$\IS\RVK\Desktop02\sigurdurbl\Desktop\Lokaverkefni\lokaverkefni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C33B16-6956-4D7A-A86E-E48419C3DB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B0A338-60F6-4377-87D0-0A7270FFE617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="3" xr2:uid="{24A245BC-99D2-4089-A6B1-978942BED1C0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{24A245BC-99D2-4089-A6B1-978942BED1C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Indices" sheetId="1" r:id="rId1"/>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355A1C2B-031B-42D4-B4D4-5B91EAB1C3FA}">
   <dimension ref="A1:M4209"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C253" sqref="C253"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="C251" sqref="C251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -72298,7 +72298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7198A0AF-8BBB-46F4-B3EE-C16F50D1EDA1}">
   <dimension ref="A1:AI239"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A205" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -97817,8 +97817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630ED73F-1609-4C97-AD2B-50685FAB0D6C}">
   <dimension ref="A1:C240"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="A239" sqref="A239:XFD239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -100449,15 +100449,7 @@
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A239" s="1">
-        <v>45322</v>
-      </c>
-      <c r="B239">
-        <v>1343.2</v>
-      </c>
-      <c r="C239">
-        <v>6.3821500000000002</v>
-      </c>
+      <c r="A239" s="1"/>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="1"/>

--- a/gogn (1).xlsx
+++ b/gogn (1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\center1.ad.local\dfs$\IS\RVK\Desktop02\sigurdurbl\Desktop\Lokaverkefni\lokaverkefni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B0A338-60F6-4377-87D0-0A7270FFE617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838A67E5-7790-40FF-9DD9-6985AC3E791B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{24A245BC-99D2-4089-A6B1-978942BED1C0}"/>
   </bookViews>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355A1C2B-031B-42D4-B4D4-5B91EAB1C3FA}">
   <dimension ref="A1:M4209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="C251" sqref="C251"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -566,8 +566,9 @@
     <col min="7" max="7" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -647,7 +648,7 @@
         <v>3.42</v>
       </c>
       <c r="L2">
-        <v>1.3220000000000001</v>
+        <v>128.91329999999999</v>
       </c>
       <c r="M2">
         <v>62.921999999999997</v>
@@ -688,7 +689,7 @@
         <v>3.36</v>
       </c>
       <c r="L3">
-        <v>1.2350000000000001</v>
+        <v>130.88419999999999</v>
       </c>
       <c r="M3">
         <v>60.756</v>
@@ -729,7 +730,7 @@
         <v>3.31</v>
       </c>
       <c r="L4">
-        <v>1.45</v>
+        <v>132.09450000000001</v>
       </c>
       <c r="M4">
         <v>61.637999999999998</v>
@@ -770,7 +771,7 @@
         <v>3.3</v>
       </c>
       <c r="L5">
-        <v>1.54</v>
+        <v>130.62559999999999</v>
       </c>
       <c r="M5">
         <v>61.875</v>
@@ -811,7 +812,7 @@
         <v>3.31</v>
       </c>
       <c r="L6">
-        <v>1.5289999999999999</v>
+        <v>130.4665</v>
       </c>
       <c r="M6">
         <v>61.92</v>
@@ -852,7 +853,7 @@
         <v>3.31</v>
       </c>
       <c r="L7">
-        <v>1.786</v>
+        <v>130.7765</v>
       </c>
       <c r="M7">
         <v>61.841999999999999</v>
@@ -893,7 +894,7 @@
         <v>3.34</v>
       </c>
       <c r="L8">
-        <v>1.859</v>
+        <v>132.08170000000001</v>
       </c>
       <c r="M8">
         <v>61.378999999999998</v>
@@ -934,7 +935,7 @@
         <v>3.23</v>
       </c>
       <c r="L9">
-        <v>1.544</v>
+        <v>133.56729999999999</v>
       </c>
       <c r="M9">
         <v>60.970999999999997</v>
@@ -975,7 +976,7 @@
         <v>3.23</v>
       </c>
       <c r="L10">
-        <v>1.4490000000000001</v>
+        <v>133.9785</v>
       </c>
       <c r="M10">
         <v>61.279000000000003</v>
@@ -1016,7 +1017,7 @@
         <v>3.16</v>
       </c>
       <c r="L11">
-        <v>1.4990000000000001</v>
+        <v>135.054</v>
       </c>
       <c r="M11">
         <v>61.012</v>
@@ -1057,7 +1058,7 @@
         <v>3.03</v>
       </c>
       <c r="L12">
-        <v>1.454</v>
+        <v>136.53829999999999</v>
       </c>
       <c r="M12">
         <v>46.851999999999997</v>
@@ -1098,7 +1099,7 @@
         <v>2.97</v>
       </c>
       <c r="L13">
-        <v>1.4410000000000001</v>
+        <v>137.06209999999999</v>
       </c>
       <c r="M13">
         <v>43.616</v>
@@ -1139,7 +1140,7 @@
         <v>2.86</v>
       </c>
       <c r="L14">
-        <v>1.33</v>
+        <v>138.83510000000001</v>
       </c>
       <c r="M14">
         <v>38.506</v>
@@ -1180,7 +1181,7 @@
         <v>2.84</v>
       </c>
       <c r="L15">
-        <v>1.4750000000000001</v>
+        <v>138.42509999999999</v>
       </c>
       <c r="M15">
         <v>35.107999999999997</v>
@@ -1221,7 +1222,7 @@
         <v>2.82</v>
       </c>
       <c r="L16">
-        <v>1.33</v>
+        <v>138.97989999999999</v>
       </c>
       <c r="M16">
         <v>33.31</v>
@@ -1262,7 +1263,7 @@
         <v>2.73</v>
       </c>
       <c r="L17">
-        <v>1.2450000000000001</v>
+        <v>141.05600000000001</v>
       </c>
       <c r="M17">
         <v>31.655000000000001</v>
@@ -1303,7 +1304,7 @@
         <v>2.77</v>
       </c>
       <c r="L18">
-        <v>1.2490000000000001</v>
+        <v>142.66569999999999</v>
       </c>
       <c r="M18">
         <v>31.338000000000001</v>
@@ -1344,7 +1345,7 @@
         <v>2.77</v>
       </c>
       <c r="L19">
-        <v>1.1739999999999999</v>
+        <v>144.3526</v>
       </c>
       <c r="M19">
         <v>31.552</v>
@@ -1385,7 +1386,7 @@
         <v>2.8</v>
       </c>
       <c r="L20">
-        <v>1.3129999999999999</v>
+        <v>143.3689</v>
       </c>
       <c r="M20">
         <v>30.242000000000001</v>
@@ -1426,7 +1427,7 @@
         <v>2.75</v>
       </c>
       <c r="L21">
-        <v>1.349</v>
+        <v>145.0017</v>
       </c>
       <c r="M21">
         <v>29.091000000000001</v>
@@ -1467,7 +1468,7 @@
         <v>2.74</v>
       </c>
       <c r="L22">
-        <v>1.484</v>
+        <v>144.89609999999999</v>
       </c>
       <c r="M22">
         <v>28.783000000000001</v>
@@ -1508,7 +1509,7 @@
         <v>2.76</v>
       </c>
       <c r="L23">
-        <v>1.554</v>
+        <v>143.7054</v>
       </c>
       <c r="M23">
         <v>28.643000000000001</v>
@@ -1549,7 +1550,7 @@
         <v>2.84</v>
       </c>
       <c r="L24">
-        <v>1.44</v>
+        <v>143.75139999999999</v>
       </c>
       <c r="M24">
         <v>28.146999999999998</v>
@@ -1590,7 +1591,7 @@
         <v>2.83</v>
       </c>
       <c r="L25">
-        <v>1.48</v>
+        <v>144.86519999999999</v>
       </c>
       <c r="M25">
         <v>27.870999999999999</v>
@@ -1631,7 +1632,7 @@
         <v>2.87</v>
       </c>
       <c r="L26">
-        <v>1.57</v>
+        <v>144.4392</v>
       </c>
       <c r="M26">
         <v>27.138000000000002</v>
@@ -1672,7 +1673,7 @@
         <v>2.87</v>
       </c>
       <c r="L27">
-        <v>1.595</v>
+        <v>144.7099</v>
       </c>
       <c r="M27">
         <v>26.491</v>
@@ -1713,7 +1714,7 @@
         <v>2.94</v>
       </c>
       <c r="L28">
-        <v>1.78</v>
+        <v>142.3013</v>
       </c>
       <c r="M28">
         <v>26.094999999999999</v>
@@ -1754,7 +1755,7 @@
         <v>2.94</v>
       </c>
       <c r="L29">
-        <v>1.93</v>
+        <v>141.46440000000001</v>
       </c>
       <c r="M29">
         <v>26.443000000000001</v>
@@ -1795,7 +1796,7 @@
         <v>2.97</v>
       </c>
       <c r="L30">
-        <v>1.84</v>
+        <v>142.14609999999999</v>
       </c>
       <c r="M30">
         <v>26.817</v>
@@ -1836,7 +1837,7 @@
         <v>2.97</v>
       </c>
       <c r="L31">
-        <v>1.93</v>
+        <v>141.36850000000001</v>
       </c>
       <c r="M31">
         <v>27.073</v>
@@ -1877,7 +1878,7 @@
         <v>2.99</v>
       </c>
       <c r="L32">
-        <v>1.929</v>
+        <v>143.1858</v>
       </c>
       <c r="M32">
         <v>27.062999999999999</v>
@@ -1918,7 +1919,7 @@
         <v>2.96</v>
       </c>
       <c r="L33">
-        <v>1.63</v>
+        <v>144.99189999999999</v>
       </c>
       <c r="M33">
         <v>27.611000000000001</v>
@@ -1959,7 +1960,7 @@
         <v>3.02</v>
       </c>
       <c r="L34">
-        <v>1.675</v>
+        <v>145.52070000000001</v>
       </c>
       <c r="M34">
         <v>27.641999999999999</v>
@@ -2000,7 +2001,7 @@
         <v>2.98</v>
       </c>
       <c r="L35">
-        <v>1.72</v>
+        <v>146.416</v>
       </c>
       <c r="M35">
         <v>27.675000000000001</v>
@@ -2041,7 +2042,7 @@
         <v>2.93</v>
       </c>
       <c r="L36">
-        <v>1.655</v>
+        <v>147.04509999999999</v>
       </c>
       <c r="M36">
         <v>27.294</v>
@@ -2082,7 +2083,7 @@
         <v>2.91</v>
       </c>
       <c r="L37">
-        <v>1.6850000000000001</v>
+        <v>145.60239999999999</v>
       </c>
       <c r="M37">
         <v>27.42</v>
@@ -2123,7 +2124,7 @@
         <v>2.89</v>
       </c>
       <c r="L38">
-        <v>1.7050000000000001</v>
+        <v>145.1892</v>
       </c>
       <c r="M38">
         <v>27.053000000000001</v>
@@ -2164,7 +2165,7 @@
         <v>2.84</v>
       </c>
       <c r="L39">
-        <v>1.6359999999999999</v>
+        <v>146.404</v>
       </c>
       <c r="M39">
         <v>26.57</v>
@@ -2205,7 +2206,7 @@
         <v>2.79</v>
       </c>
       <c r="L40">
-        <v>1.659</v>
+        <v>145.6183</v>
       </c>
       <c r="M40">
         <v>26.398</v>
@@ -2246,7 +2247,7 @@
         <v>2.71</v>
       </c>
       <c r="L41">
-        <v>1.66</v>
+        <v>145.42590000000001</v>
       </c>
       <c r="M41">
         <v>25.75</v>
@@ -2287,7 +2288,7 @@
         <v>2.69</v>
       </c>
       <c r="L42">
-        <v>1.7529999999999999</v>
+        <v>144.06890000000001</v>
       </c>
       <c r="M42">
         <v>25.666</v>
@@ -2328,7 +2329,7 @@
         <v>2.68</v>
       </c>
       <c r="L43">
-        <v>1.879</v>
+        <v>143.4254</v>
       </c>
       <c r="M43">
         <v>25.530999999999999</v>
@@ -2369,7 +2370,7 @@
         <v>2.74</v>
       </c>
       <c r="L44">
-        <v>1.8</v>
+        <v>145.14920000000001</v>
       </c>
       <c r="M44">
         <v>25.294</v>
@@ -2410,7 +2411,7 @@
         <v>2.69</v>
       </c>
       <c r="L45">
-        <v>1.613</v>
+        <v>146.24930000000001</v>
       </c>
       <c r="M45">
         <v>25.803000000000001</v>
@@ -2451,7 +2452,7 @@
         <v>2.75</v>
       </c>
       <c r="L46">
-        <v>1.6850000000000001</v>
+        <v>145.71789999999999</v>
       </c>
       <c r="M46">
         <v>26.251000000000001</v>
@@ -2492,7 +2493,7 @@
         <v>2.73</v>
       </c>
       <c r="L47">
-        <v>1.61</v>
+        <v>146.91059999999999</v>
       </c>
       <c r="M47">
         <v>25.335000000000001</v>
@@ -2533,7 +2534,7 @@
         <v>2.71</v>
       </c>
       <c r="L48">
-        <v>1.478</v>
+        <v>147.03729999999999</v>
       </c>
       <c r="M48">
         <v>25.978000000000002</v>
@@ -2574,7 +2575,7 @@
         <v>2.75</v>
       </c>
       <c r="L49">
-        <v>1.51</v>
+        <v>146.34800000000001</v>
       </c>
       <c r="M49">
         <v>26.922999999999998</v>
@@ -2615,7 +2616,7 @@
         <v>2.9</v>
       </c>
       <c r="L50">
-        <v>1.44</v>
+        <v>148.75839999999999</v>
       </c>
       <c r="M50">
         <v>27.815000000000001</v>
@@ -2656,7 +2657,7 @@
         <v>2.99</v>
       </c>
       <c r="L51">
-        <v>1.365</v>
+        <v>148.685</v>
       </c>
       <c r="M51">
         <v>28.513000000000002</v>
@@ -2697,7 +2698,7 @@
         <v>3.05</v>
       </c>
       <c r="L52">
-        <v>1.284</v>
+        <v>146.8595</v>
       </c>
       <c r="M52">
         <v>28.719000000000001</v>
@@ -2738,7 +2739,7 @@
         <v>3.07</v>
       </c>
       <c r="L53">
-        <v>1.585</v>
+        <v>146.6396</v>
       </c>
       <c r="M53">
         <v>29.934000000000001</v>
@@ -2779,7 +2780,7 @@
         <v>3.2</v>
       </c>
       <c r="L54">
-        <v>1.7589999999999999</v>
+        <v>145.1123</v>
       </c>
       <c r="M54">
         <v>31.074999999999999</v>
@@ -2820,7 +2821,7 @@
         <v>3.33</v>
       </c>
       <c r="L55">
-        <v>1.601</v>
+        <v>143.52850000000001</v>
       </c>
       <c r="M55">
         <v>32.262999999999998</v>
@@ -2861,7 +2862,7 @@
         <v>3.45</v>
       </c>
       <c r="L56">
-        <v>1.5389999999999999</v>
+        <v>146.1987</v>
       </c>
       <c r="M56">
         <v>33.130000000000003</v>
@@ -2902,7 +2903,7 @@
         <v>3.52</v>
       </c>
       <c r="L57">
-        <v>1.415</v>
+        <v>147.38300000000001</v>
       </c>
       <c r="M57">
         <v>33.104999999999997</v>
@@ -2943,7 +2944,7 @@
         <v>3.68</v>
       </c>
       <c r="L58">
-        <v>1.472</v>
+        <v>146.7244</v>
       </c>
       <c r="M58">
         <v>33.793999999999997</v>
@@ -2984,7 +2985,7 @@
         <v>3.91</v>
       </c>
       <c r="L59">
-        <v>1.476</v>
+        <v>146.90690000000001</v>
       </c>
       <c r="M59">
         <v>35.218000000000004</v>
@@ -3025,7 +3026,7 @@
         <v>3.97</v>
       </c>
       <c r="L60">
-        <v>1.399</v>
+        <v>150.0986</v>
       </c>
       <c r="M60">
         <v>35.252000000000002</v>
@@ -3066,7 +3067,7 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="L61">
-        <v>1.1739999999999999</v>
+        <v>148.89349999999999</v>
       </c>
       <c r="M61">
         <v>35.241</v>
@@ -3107,7 +3108,7 @@
         <v>4.32</v>
       </c>
       <c r="L62">
-        <v>1.2969999999999999</v>
+        <v>148.96279999999999</v>
       </c>
       <c r="M62">
         <v>35.479999999999997</v>
@@ -3148,7 +3149,7 @@
         <v>4.38</v>
       </c>
       <c r="L63">
-        <v>1.28</v>
+        <v>149.37119999999999</v>
       </c>
       <c r="M63">
         <v>35.448999999999998</v>
@@ -3189,7 +3190,7 @@
         <v>4.49</v>
       </c>
       <c r="L64">
-        <v>1.353</v>
+        <v>149.8663</v>
       </c>
       <c r="M64">
         <v>35.043999999999997</v>
@@ -3230,7 +3231,7 @@
         <v>4.5599999999999996</v>
       </c>
       <c r="L65">
-        <v>1.4319999999999999</v>
+        <v>151.80699999999999</v>
       </c>
       <c r="M65">
         <v>34.524999999999999</v>
@@ -3271,7 +3272,7 @@
         <v>4.54</v>
       </c>
       <c r="L66">
-        <v>1.49</v>
+        <v>151.94</v>
       </c>
       <c r="M66">
         <v>34.033000000000001</v>
@@ -3312,7 +3313,7 @@
         <v>4.55</v>
       </c>
       <c r="L67">
-        <v>1.359</v>
+        <v>154.6473</v>
       </c>
       <c r="M67">
         <v>32.869</v>
@@ -3353,7 +3354,7 @@
         <v>4.5</v>
       </c>
       <c r="L68">
-        <v>1.419</v>
+        <v>157.53440000000001</v>
       </c>
       <c r="M68">
         <v>32.156999999999996</v>
@@ -3394,7 +3395,7 @@
         <v>4.45</v>
       </c>
       <c r="L69">
-        <v>1.31</v>
+        <v>158.84739999999999</v>
       </c>
       <c r="M69">
         <v>31.509</v>
@@ -3435,7 +3436,7 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="L70">
-        <v>1.3009999999999999</v>
+        <v>159.31790000000001</v>
       </c>
       <c r="M70">
         <v>29.728000000000002</v>
@@ -3476,7 +3477,7 @@
         <v>4.38</v>
       </c>
       <c r="L71">
-        <v>1.415</v>
+        <v>160.11320000000001</v>
       </c>
       <c r="M71">
         <v>28.117999999999999</v>
@@ -3517,7 +3518,7 @@
         <v>4.29</v>
       </c>
       <c r="L72">
-        <v>1.266</v>
+        <v>160.8237</v>
       </c>
       <c r="M72">
         <v>27.613</v>
@@ -3558,7 +3559,7 @@
         <v>4.25</v>
       </c>
       <c r="L73">
-        <v>1.2949999999999999</v>
+        <v>160.2989</v>
       </c>
       <c r="M73">
         <v>27.925000000000001</v>
@@ -3599,7 +3600,7 @@
         <v>4.2</v>
       </c>
       <c r="L74">
-        <v>1.325</v>
+        <v>162.43090000000001</v>
       </c>
       <c r="M74">
         <v>26.928000000000001</v>
@@ -3640,7 +3641,7 @@
         <v>4.04</v>
       </c>
       <c r="L75">
-        <v>1.3049999999999999</v>
+        <v>163.11429999999999</v>
       </c>
       <c r="M75">
         <v>24.917000000000002</v>
@@ -3681,7 +3682,7 @@
         <v>3.85</v>
       </c>
       <c r="L76">
-        <v>1.4</v>
+        <v>164.62819999999999</v>
       </c>
       <c r="M76">
         <v>24.324000000000002</v>
@@ -3722,7 +3723,7 @@
         <v>3.72</v>
       </c>
       <c r="L77">
-        <v>1.29</v>
+        <v>165.15090000000001</v>
       </c>
       <c r="M77">
         <v>24.059000000000001</v>
@@ -3763,7 +3764,7 @@
         <v>3.6</v>
       </c>
       <c r="L78">
-        <v>1.2649999999999999</v>
+        <v>167.49959999999999</v>
       </c>
       <c r="M78">
         <v>22.931999999999999</v>
@@ -3804,7 +3805,7 @@
         <v>3.36</v>
       </c>
       <c r="L79">
-        <v>1.091</v>
+        <v>168.31489999999999</v>
       </c>
       <c r="M79">
         <v>22.693999999999999</v>
@@ -3845,7 +3846,7 @@
         <v>3.26</v>
       </c>
       <c r="L80">
-        <v>1.0740000000000001</v>
+        <v>168.97730000000001</v>
       </c>
       <c r="M80">
         <v>23.396999999999998</v>
@@ -3886,7 +3887,7 @@
         <v>3.13</v>
       </c>
       <c r="L81">
-        <v>0.97099999999999997</v>
+        <v>173.92500000000001</v>
       </c>
       <c r="M81">
         <v>25.228999999999999</v>
@@ -3927,7 +3928,7 @@
         <v>3.19</v>
       </c>
       <c r="L82">
-        <v>0.94</v>
+        <v>171.10650000000001</v>
       </c>
       <c r="M82">
         <v>28.401</v>
@@ -3968,7 +3969,7 @@
         <v>3.13</v>
       </c>
       <c r="L83">
-        <v>0.93899999999999995</v>
+        <v>170.0489</v>
       </c>
       <c r="M83">
         <v>29.922999999999998</v>
@@ -4009,7 +4010,7 @@
         <v>3.16</v>
       </c>
       <c r="L84">
-        <v>1.194</v>
+        <v>168.28550000000001</v>
       </c>
       <c r="M84">
         <v>31.212</v>
@@ -4050,7 +4051,7 @@
         <v>3.17</v>
       </c>
       <c r="L85">
-        <v>1.1279999999999999</v>
+        <v>167.20590000000001</v>
       </c>
       <c r="M85">
         <v>33.048999999999999</v>
@@ -4091,7 +4092,7 @@
         <v>3.2</v>
       </c>
       <c r="L86">
-        <v>1.2190000000000001</v>
+        <v>166.13589999999999</v>
       </c>
       <c r="M86">
         <v>33.585999999999999</v>
@@ -4132,7 +4133,7 @@
         <v>3.2</v>
       </c>
       <c r="L87">
-        <v>1.264</v>
+        <v>166.91829999999999</v>
       </c>
       <c r="M87">
         <v>33.948999999999998</v>
@@ -4173,7 +4174,7 @@
         <v>3.21</v>
       </c>
       <c r="L88">
-        <v>1.26</v>
+        <v>165.11699999999999</v>
       </c>
       <c r="M88">
         <v>34.006999999999998</v>
@@ -4214,7 +4215,7 @@
         <v>3.22</v>
       </c>
       <c r="L89">
-        <v>1.21</v>
+        <v>166.54560000000001</v>
       </c>
       <c r="M89">
         <v>33.418999999999997</v>
@@ -4255,7 +4256,7 @@
         <v>3.25</v>
       </c>
       <c r="L90">
-        <v>1.165</v>
+        <v>168.8938</v>
       </c>
       <c r="M90">
         <v>33.656999999999996</v>
@@ -4296,7 +4297,7 @@
         <v>3.3</v>
       </c>
       <c r="L91">
-        <v>1.1399999999999999</v>
+        <v>167.399</v>
       </c>
       <c r="M91">
         <v>34.087000000000003</v>
@@ -4337,7 +4338,7 @@
         <v>3.36</v>
       </c>
       <c r="L92">
-        <v>1.0820000000000001</v>
+        <v>170.2543</v>
       </c>
       <c r="M92">
         <v>34.280999999999999</v>
@@ -4378,7 +4379,7 @@
         <v>3.62</v>
       </c>
       <c r="L93">
-        <v>1.034</v>
+        <v>172.4469</v>
       </c>
       <c r="M93">
         <v>34.680999999999997</v>
@@ -4419,7 +4420,7 @@
         <v>3.76</v>
       </c>
       <c r="L94">
-        <v>1.032</v>
+        <v>174.0718</v>
       </c>
       <c r="M94">
         <v>34.930999999999997</v>
@@ -4460,7 +4461,7 @@
         <v>3.86</v>
       </c>
       <c r="L95">
-        <v>1.0469999999999999</v>
+        <v>173.43270000000001</v>
       </c>
       <c r="M95">
         <v>34.813000000000002</v>
@@ -4501,7 +4502,7 @@
         <v>3.98</v>
       </c>
       <c r="L96">
-        <v>1.0720000000000001</v>
+        <v>170.86240000000001</v>
       </c>
       <c r="M96">
         <v>34.398000000000003</v>
@@ -4542,7 +4543,7 @@
         <v>4.05</v>
       </c>
       <c r="L97">
-        <v>0.98799999999999999</v>
+        <v>176.4676</v>
       </c>
       <c r="M97">
         <v>33.600999999999999</v>
@@ -4583,7 +4584,7 @@
         <v>4</v>
       </c>
       <c r="L98">
-        <v>0.96699999999999997</v>
+        <v>179.7782</v>
       </c>
       <c r="M98">
         <v>30.844999999999999</v>
@@ -4624,7 +4625,7 @@
         <v>3.92</v>
       </c>
       <c r="L99">
-        <v>0.96299999999999997</v>
+        <v>181.54509999999999</v>
       </c>
       <c r="M99">
         <v>28.408999999999999</v>
@@ -4665,7 +4666,7 @@
         <v>3.9</v>
       </c>
       <c r="L100">
-        <v>0.98899999999999999</v>
+        <v>181.95189999999999</v>
       </c>
       <c r="M100">
         <v>27.946000000000002</v>
@@ -4706,7 +4707,7 @@
         <v>3.8</v>
       </c>
       <c r="L101">
-        <v>0.89700000000000002</v>
+        <v>182.7937</v>
       </c>
       <c r="M101">
         <v>24.945</v>
@@ -4747,7 +4748,7 @@
         <v>3.75</v>
       </c>
       <c r="L102">
-        <v>0.82399999999999995</v>
+        <v>185.9966</v>
       </c>
       <c r="M102">
         <v>24.422999999999998</v>
@@ -4788,7 +4789,7 @@
         <v>3.83</v>
       </c>
       <c r="L103">
-        <v>0.83699999999999997</v>
+        <v>184.64359999999999</v>
       </c>
       <c r="M103">
         <v>24.652000000000001</v>
@@ -4829,7 +4830,7 @@
         <v>3.89</v>
       </c>
       <c r="L104">
-        <v>0.79400000000000004</v>
+        <v>189.46559999999999</v>
       </c>
       <c r="M104">
         <v>24.242000000000001</v>
@@ -4870,7 +4871,7 @@
         <v>3.87</v>
       </c>
       <c r="L105">
-        <v>0.79700000000000004</v>
+        <v>190.35130000000001</v>
       </c>
       <c r="M105">
         <v>25.27</v>
@@ -4911,7 +4912,7 @@
         <v>3.89</v>
       </c>
       <c r="L106">
-        <v>0.77800000000000002</v>
+        <v>191.49199999999999</v>
       </c>
       <c r="M106">
         <v>25.535</v>
@@ -4952,7 +4953,7 @@
         <v>3.84</v>
       </c>
       <c r="L107">
-        <v>0.77500000000000002</v>
+        <v>192.1568</v>
       </c>
       <c r="M107">
         <v>25.231999999999999</v>
@@ -4993,7 +4994,7 @@
         <v>3.8</v>
       </c>
       <c r="L108">
-        <v>0.71599999999999997</v>
+        <v>193.95599999999999</v>
       </c>
       <c r="M108">
         <v>24.571000000000002</v>
@@ -5034,7 +5035,7 @@
         <v>3.73</v>
       </c>
       <c r="L109">
-        <v>0.79100000000000004</v>
+        <v>195.14500000000001</v>
       </c>
       <c r="M109">
         <v>24.594999999999999</v>
@@ -5075,7 +5076,7 @@
         <v>3.59</v>
       </c>
       <c r="L110">
-        <v>0.754</v>
+        <v>191.37209999999999</v>
       </c>
       <c r="M110">
         <v>25.161000000000001</v>
@@ -5116,7 +5117,7 @@
         <v>3.52</v>
       </c>
       <c r="L111">
-        <v>0.66300000000000003</v>
+        <v>192.5658</v>
       </c>
       <c r="M111">
         <v>25.617000000000001</v>
@@ -5157,7 +5158,7 @@
         <v>3.3</v>
       </c>
       <c r="L112">
-        <v>0.55100000000000005</v>
+        <v>194.76669999999999</v>
       </c>
       <c r="M112">
         <v>28.271999999999998</v>
@@ -5198,7 +5199,7 @@
         <v>3.12</v>
       </c>
       <c r="L113">
-        <v>0.60899999999999999</v>
+        <v>198.33869999999999</v>
       </c>
       <c r="M113">
         <v>41.655999999999999</v>
@@ -5239,7 +5240,7 @@
         <v>3.1</v>
       </c>
       <c r="L114">
-        <v>0.85699999999999998</v>
+        <v>195.57210000000001</v>
       </c>
       <c r="M114">
         <v>47.621000000000002</v>
@@ -5280,7 +5281,7 @@
         <v>3.31</v>
       </c>
       <c r="L115">
-        <v>0.85299999999999998</v>
+        <v>192.0068</v>
       </c>
       <c r="M115">
         <v>49.078000000000003</v>
@@ -5321,7 +5322,7 @@
         <v>3.29</v>
       </c>
       <c r="L116">
-        <v>0.80200000000000005</v>
+        <v>192.83359999999999</v>
       </c>
       <c r="M116">
         <v>49.374000000000002</v>
@@ -5362,7 +5363,7 @@
         <v>3.28</v>
       </c>
       <c r="L117">
-        <v>0.72</v>
+        <v>192.624</v>
       </c>
       <c r="M117">
         <v>49.960999999999999</v>
@@ -5403,7 +5404,7 @@
         <v>3.35</v>
       </c>
       <c r="L118">
-        <v>0.68600000000000005</v>
+        <v>194.76400000000001</v>
       </c>
       <c r="M118">
         <v>50.374000000000002</v>
@@ -5444,7 +5445,7 @@
         <v>3.33</v>
       </c>
       <c r="L119">
-        <v>0.59499999999999997</v>
+        <v>196.60769999999999</v>
       </c>
       <c r="M119">
         <v>50.115000000000002</v>
@@ -5485,7 +5486,7 @@
         <v>3.21</v>
       </c>
       <c r="L120">
-        <v>0.60499999999999998</v>
+        <v>197.3134</v>
       </c>
       <c r="M120">
         <v>50.457999999999998</v>
@@ -5526,7 +5527,7 @@
         <v>3.15</v>
       </c>
       <c r="L121">
-        <v>0.74099999999999999</v>
+        <v>196.04730000000001</v>
       </c>
       <c r="M121">
         <v>50.545999999999999</v>
@@ -5567,7 +5568,7 @@
         <v>3.09</v>
       </c>
       <c r="L122">
-        <v>0.622</v>
+        <v>200.10059999999999</v>
       </c>
       <c r="M122">
         <v>50.679000000000002</v>
@@ -5608,7 +5609,7 @@
         <v>3.01</v>
       </c>
       <c r="L123">
-        <v>0.58599999999999997</v>
+        <v>201.0187</v>
       </c>
       <c r="M123">
         <v>50.808999999999997</v>
@@ -5649,7 +5650,7 @@
         <v>3.04</v>
       </c>
       <c r="L124">
-        <v>0.64200000000000002</v>
+        <v>202.0402</v>
       </c>
       <c r="M124">
         <v>51.030999999999999</v>
@@ -5690,7 +5691,7 @@
         <v>3.05</v>
       </c>
       <c r="L125">
-        <v>0.627</v>
+        <v>203.86680000000001</v>
       </c>
       <c r="M125">
         <v>51.219000000000001</v>
@@ -5731,7 +5732,7 @@
         <v>3.06</v>
       </c>
       <c r="L126">
-        <v>0.57799999999999996</v>
+        <v>206.24590000000001</v>
       </c>
       <c r="M126">
         <v>51.109000000000002</v>
@@ -5772,7 +5773,7 @@
         <v>2.98</v>
       </c>
       <c r="L127">
-        <v>0.56599999999999995</v>
+        <v>208.17230000000001</v>
       </c>
       <c r="M127">
         <v>50.618000000000002</v>
@@ -5813,7 +5814,7 @@
         <v>2.89</v>
       </c>
       <c r="L128">
-        <v>0.53800000000000003</v>
+        <v>210.00110000000001</v>
       </c>
       <c r="M128">
         <v>49.732999999999997</v>
@@ -5854,7 +5855,7 @@
         <v>2.92</v>
       </c>
       <c r="L129">
-        <v>0.496</v>
+        <v>213.99090000000001</v>
       </c>
       <c r="M129">
         <v>39.707000000000001</v>
@@ -5895,7 +5896,7 @@
         <v>2.93</v>
       </c>
       <c r="L130">
-        <v>0.53100000000000003</v>
+        <v>214.7097</v>
       </c>
       <c r="M130">
         <v>33.929000000000002</v>
@@ -5936,7 +5937,7 @@
         <v>2.85</v>
       </c>
       <c r="L131">
-        <v>0.45800000000000002</v>
+        <v>215.42060000000001</v>
       </c>
       <c r="M131">
         <v>30.161000000000001</v>
@@ -5977,7 +5978,7 @@
         <v>2.58</v>
       </c>
       <c r="L132">
-        <v>0.42099999999999999</v>
+        <v>217.63800000000001</v>
       </c>
       <c r="M132">
         <v>32.997</v>
@@ -6018,7 +6019,7 @@
         <v>2.56</v>
       </c>
       <c r="L133">
-        <v>0.32900000000000001</v>
+        <v>220.44239999999999</v>
       </c>
       <c r="M133">
         <v>34.405999999999999</v>
@@ -6059,7 +6060,7 @@
         <v>2.72</v>
       </c>
       <c r="L134">
-        <v>0.27800000000000002</v>
+        <v>227.8023</v>
       </c>
       <c r="M134">
         <v>55.569000000000003</v>
@@ -6100,7 +6101,7 @@
         <v>2.66</v>
       </c>
       <c r="L135">
-        <v>0.33500000000000002</v>
+        <v>228.5506</v>
       </c>
       <c r="M135">
         <v>61.988999999999997</v>
@@ -6141,7 +6142,7 @@
         <v>2.79</v>
       </c>
       <c r="L136">
-        <v>0.40500000000000003</v>
+        <v>231.3115</v>
       </c>
       <c r="M136">
         <v>67.796999999999997</v>
@@ -6182,7 +6183,7 @@
         <v>2.9</v>
       </c>
       <c r="L137">
-        <v>0.34200000000000003</v>
+        <v>228.2039</v>
       </c>
       <c r="M137">
         <v>71.004000000000005</v>
@@ -6223,7 +6224,7 @@
         <v>3.19</v>
       </c>
       <c r="L138">
-        <v>0.39400000000000002</v>
+        <v>227.06630000000001</v>
       </c>
       <c r="M138">
         <v>74.552000000000007</v>
@@ -6264,7 +6265,7 @@
         <v>3.54</v>
       </c>
       <c r="L139">
-        <v>0.46500000000000002</v>
+        <v>222.76900000000001</v>
       </c>
       <c r="M139">
         <v>77.096999999999994</v>
@@ -6305,7 +6306,7 @@
         <v>3.74</v>
       </c>
       <c r="L140">
-        <v>0.41499999999999998</v>
+        <v>226.44499999999999</v>
       </c>
       <c r="M140">
         <v>78.361999999999995</v>
@@ -6346,7 +6347,7 @@
         <v>3.78</v>
       </c>
       <c r="L141">
-        <v>0.38</v>
+        <v>223.52850000000001</v>
       </c>
       <c r="M141">
         <v>80.215999999999994</v>
@@ -6387,7 +6388,7 @@
         <v>3.87</v>
       </c>
       <c r="L142">
-        <v>0.35599999999999998</v>
+        <v>224.68600000000001</v>
       </c>
       <c r="M142">
         <v>83.748000000000005</v>
@@ -6428,7 +6429,7 @@
         <v>3.95</v>
       </c>
       <c r="L143">
-        <v>0.309</v>
+        <v>227.38839999999999</v>
       </c>
       <c r="M143">
         <v>85.12</v>
@@ -6469,7 +6470,7 @@
         <v>3.97</v>
       </c>
       <c r="L144">
-        <v>0.307</v>
+        <v>229.69040000000001</v>
       </c>
       <c r="M144">
         <v>85.799000000000007</v>
@@ -6510,7 +6511,7 @@
         <v>4.25</v>
       </c>
       <c r="L145">
-        <v>0.26500000000000001</v>
+        <v>225.31049999999999</v>
       </c>
       <c r="M145">
         <v>87.093000000000004</v>
@@ -6551,7 +6552,7 @@
         <v>4.28</v>
       </c>
       <c r="L146">
-        <v>0.1</v>
+        <v>227.75989999999999</v>
       </c>
       <c r="M146">
         <v>114.46</v>
@@ -6592,7 +6593,7 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="L147">
-        <v>-0.06</v>
+        <v>228.98830000000001</v>
       </c>
       <c r="M147">
         <v>269.49200000000002</v>
@@ -6633,7 +6634,7 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="L148">
-        <v>-2.9000000000000001E-2</v>
+        <v>229.51089999999999</v>
       </c>
       <c r="M148">
         <v>278.28399999999999</v>
@@ -6674,7 +6675,7 @@
         <v>4.38</v>
       </c>
       <c r="L149">
-        <v>-7.4999999999999997E-2</v>
+        <v>228.43469999999999</v>
       </c>
       <c r="M149">
         <v>286.87200000000001</v>
@@ -6715,7 +6716,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="L150">
-        <v>-0.105</v>
+        <v>231.3997</v>
       </c>
       <c r="M150">
         <v>297.82499999999999</v>
@@ -6756,7 +6757,7 @@
         <v>4.32</v>
       </c>
       <c r="L151">
-        <v>-0.217</v>
+        <v>233.40899999999999</v>
       </c>
       <c r="M151">
         <v>304.20400000000001</v>
@@ -6797,7 +6798,7 @@
         <v>4.33</v>
       </c>
       <c r="L152">
-        <v>-0.19</v>
+        <v>235.602</v>
       </c>
       <c r="M152">
         <v>315.66699999999997</v>
@@ -6838,7 +6839,7 @@
         <v>4.29</v>
       </c>
       <c r="L153">
-        <v>-6.3E-2</v>
+        <v>236.0891</v>
       </c>
       <c r="M153">
         <v>329.99799999999999</v>
@@ -6879,7 +6880,7 @@
         <v>4.22</v>
       </c>
       <c r="L154">
-        <v>-8.8999999999999996E-2</v>
+        <v>234.8297</v>
       </c>
       <c r="M154">
         <v>345.59699999999998</v>
@@ -6920,7 +6921,7 @@
         <v>4</v>
       </c>
       <c r="L155">
-        <v>-4.8000000000000001E-2</v>
+        <v>228.84899999999999</v>
       </c>
       <c r="M155">
         <v>361.82499999999999</v>
@@ -6961,7 +6962,7 @@
         <v>4</v>
       </c>
       <c r="L156">
-        <v>2.5000000000000001E-2</v>
+        <v>227.90530000000001</v>
       </c>
       <c r="M156">
         <v>361.82499999999999</v>
@@ -7002,7 +7003,7 @@
         <v>3.89</v>
       </c>
       <c r="L157">
-        <v>4.5999999999999999E-2</v>
+        <v>229.6183</v>
       </c>
       <c r="M157">
         <v>361.82499999999999</v>
@@ -7043,7 +7044,7 @@
         <v>3.89</v>
       </c>
       <c r="L158">
-        <v>8.6999999999999994E-2</v>
+        <v>226.20699999999999</v>
       </c>
       <c r="M158">
         <v>361.82499999999999</v>
@@ -7084,7 +7085,7 @@
         <v>3.84</v>
       </c>
       <c r="L159">
-        <v>5.6000000000000001E-2</v>
+        <v>229.5085</v>
       </c>
       <c r="M159">
         <v>361.82499999999999</v>
@@ -7125,7 +7126,7 @@
         <v>3.81</v>
       </c>
       <c r="L160">
-        <v>7.0000000000000007E-2</v>
+        <v>228.68260000000001</v>
       </c>
       <c r="M160">
         <v>361.82499999999999</v>
@@ -7166,7 +7167,7 @@
         <v>3.79</v>
       </c>
       <c r="L161">
-        <v>1.7999999999999999E-2</v>
+        <v>230.16730000000001</v>
       </c>
       <c r="M161">
         <v>361.82499999999999</v>
@@ -7207,7 +7208,7 @@
         <v>3.5</v>
       </c>
       <c r="L162">
-        <v>4.9000000000000002E-2</v>
+        <v>229.8947</v>
       </c>
       <c r="M162">
         <v>361.82499999999999</v>
@@ -7248,7 +7249,7 @@
         <v>3.5</v>
       </c>
       <c r="L163">
-        <v>8.5999999999999993E-2</v>
+        <v>227.83949999999999</v>
       </c>
       <c r="M163">
         <v>361.82499999999999</v>
@@ -7289,7 +7290,7 @@
         <v>3.5</v>
       </c>
       <c r="L164">
-        <v>8.3000000000000004E-2</v>
+        <v>227.6122</v>
       </c>
       <c r="M164">
         <v>395.96899999999999</v>
@@ -7330,7 +7331,7 @@
         <v>3.4</v>
       </c>
       <c r="L165">
-        <v>8.9999999999999993E-3</v>
+        <v>228.68719999999999</v>
       </c>
       <c r="M165">
         <v>393.84</v>
@@ -7371,7 +7372,7 @@
         <v>3.37</v>
       </c>
       <c r="L166">
-        <v>6.8000000000000005E-2</v>
+        <v>228.62450000000001</v>
       </c>
       <c r="M166">
         <v>437.7</v>
@@ -7412,7 +7413,7 @@
         <v>3.4</v>
       </c>
       <c r="L167">
-        <v>7.0999999999999994E-2</v>
+        <v>230.64859999999999</v>
       </c>
       <c r="M167">
         <v>420.84</v>
@@ -7453,7 +7454,7 @@
         <v>3.37</v>
       </c>
       <c r="L168">
-        <v>3.9E-2</v>
+        <v>230.7807</v>
       </c>
       <c r="M168">
         <v>422.238</v>
@@ -7494,7 +7495,7 @@
         <v>3.36</v>
       </c>
       <c r="L169">
-        <v>4.8000000000000001E-2</v>
+        <v>230.07149999999999</v>
       </c>
       <c r="M169">
         <v>411.34699999999998</v>
@@ -7535,7 +7536,7 @@
         <v>3.32</v>
       </c>
       <c r="L170">
-        <v>8.5000000000000006E-2</v>
+        <v>229.05420000000001</v>
       </c>
       <c r="M170">
         <v>398.101</v>
@@ -7576,7 +7577,7 @@
         <v>3.18</v>
       </c>
       <c r="L171">
-        <v>5.2999999999999999E-2</v>
+        <v>228.79929999999999</v>
       </c>
       <c r="M171">
         <v>388.01799999999997</v>
@@ -7617,7 +7618,7 @@
         <v>3.05</v>
       </c>
       <c r="L172">
-        <v>4.9000000000000002E-2</v>
+        <v>231.5436</v>
       </c>
       <c r="M172">
         <v>386.33800000000002</v>
@@ -7658,7 +7659,7 @@
         <v>2.94</v>
       </c>
       <c r="L173">
-        <v>5.5E-2</v>
+        <v>230.5342</v>
       </c>
       <c r="M173">
         <v>341.30700000000002</v>
@@ -7699,7 +7700,7 @@
         <v>2.84</v>
       </c>
       <c r="L174">
-        <v>0.04</v>
+        <v>230.1155</v>
       </c>
       <c r="M174">
         <v>333.375</v>
@@ -7740,7 +7741,7 @@
         <v>2.83</v>
       </c>
       <c r="L175">
-        <v>3.5999999999999997E-2</v>
+        <v>230.31209999999999</v>
       </c>
       <c r="M175">
         <v>330.78500000000003</v>
@@ -7781,7 +7782,7 @@
         <v>2.77</v>
       </c>
       <c r="L176">
-        <v>6.2E-2</v>
+        <v>229.64510000000001</v>
       </c>
       <c r="M176">
         <v>345.18400000000003</v>
@@ -7822,7 +7823,7 @@
         <v>2.71</v>
       </c>
       <c r="L177">
-        <v>0.107</v>
+        <v>229.09880000000001</v>
       </c>
       <c r="M177">
         <v>333.04500000000002</v>
@@ -7863,7 +7864,7 @@
         <v>2.69</v>
       </c>
       <c r="L178">
-        <v>0.13</v>
+        <v>228.3595</v>
       </c>
       <c r="M178">
         <v>316.202</v>
@@ -7904,7 +7905,7 @@
         <v>2.67</v>
       </c>
       <c r="L179">
-        <v>0.127</v>
+        <v>228.75149999999999</v>
       </c>
       <c r="M179">
         <v>310.8</v>
@@ -7945,7 +7946,7 @@
         <v>2.52</v>
       </c>
       <c r="L180">
-        <v>9.1999999999999998E-2</v>
+        <v>228.79490000000001</v>
       </c>
       <c r="M180">
         <v>308.31200000000001</v>
@@ -7986,7 +7987,7 @@
         <v>2.42</v>
       </c>
       <c r="L181">
-        <v>3.0000000000000001E-3</v>
+        <v>230.37710000000001</v>
       </c>
       <c r="M181">
         <v>377.03300000000002</v>
@@ -8027,7 +8028,7 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="L182">
-        <v>5.0000000000000001E-3</v>
+        <v>233.6317</v>
       </c>
       <c r="M182">
         <v>445.33699999999999</v>
@@ -8068,7 +8069,7 @@
         <v>2.44</v>
       </c>
       <c r="L183">
-        <v>-2.1999999999999999E-2</v>
+        <v>233.87260000000001</v>
       </c>
       <c r="M183">
         <v>450.255</v>
@@ -8109,7 +8110,7 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="L184">
-        <v>-8.1000000000000003E-2</v>
+        <v>237.96449999999999</v>
       </c>
       <c r="M184">
         <v>461.654</v>
@@ -8150,7 +8151,7 @@
         <v>2.5</v>
       </c>
       <c r="L185">
-        <v>-0.04</v>
+        <v>237.661</v>
       </c>
       <c r="M185">
         <v>470.43</v>
@@ -8191,7 +8192,7 @@
         <v>2.4</v>
       </c>
       <c r="L186">
-        <v>-9.4E-2</v>
+        <v>239.22049999999999</v>
       </c>
       <c r="M186">
         <v>486.93200000000002</v>
@@ -8232,7 +8233,7 @@
         <v>2.48</v>
       </c>
       <c r="L187">
-        <v>-0.158</v>
+        <v>242.73179999999999</v>
       </c>
       <c r="M187">
         <v>504.00200000000001</v>
@@ -8273,7 +8274,7 @@
         <v>2.58</v>
       </c>
       <c r="L188">
-        <v>-0.153</v>
+        <v>245.86750000000001</v>
       </c>
       <c r="M188">
         <v>521.69399999999996</v>
@@ -8314,7 +8315,7 @@
         <v>2.77</v>
       </c>
       <c r="L189">
-        <v>-0.26900000000000002</v>
+        <v>251.03129999999999</v>
       </c>
       <c r="M189">
         <v>538.75599999999997</v>
@@ -8355,7 +8356,7 @@
         <v>2.99</v>
       </c>
       <c r="L190">
-        <v>-0.21299999999999999</v>
+        <v>250.9109</v>
       </c>
       <c r="M190">
         <v>563.40700000000004</v>
@@ -8396,7 +8397,7 @@
         <v>3.05</v>
       </c>
       <c r="L191">
-        <v>-0.13300000000000001</v>
+        <v>249.4273</v>
       </c>
       <c r="M191">
         <v>573.49300000000005</v>
@@ -8437,7 +8438,7 @@
         <v>2.99</v>
       </c>
       <c r="L192">
-        <v>-7.2999999999999995E-2</v>
+        <v>248.47800000000001</v>
       </c>
       <c r="M192">
         <v>573.49300000000005</v>
@@ -8478,7 +8479,7 @@
         <v>3.15</v>
       </c>
       <c r="L193">
-        <v>-1.0999999999999999E-2</v>
+        <v>246.9639</v>
       </c>
       <c r="M193">
         <v>573.49300000000005</v>
@@ -8519,7 +8520,7 @@
         <v>3.21</v>
       </c>
       <c r="L194">
-        <v>-6.6000000000000003E-2</v>
+        <v>252.59190000000001</v>
       </c>
       <c r="M194">
         <v>573.49300000000005</v>
@@ -8560,7 +8561,7 @@
         <v>3.24</v>
       </c>
       <c r="L195">
-        <v>-0.153</v>
+        <v>252.76910000000001</v>
       </c>
       <c r="M195">
         <v>573.49300000000005</v>
@@ -8601,7 +8602,7 @@
         <v>4.54</v>
       </c>
       <c r="L196">
-        <v>2.1999999999999999E-2</v>
+        <v>243.82669999999999</v>
       </c>
       <c r="M196">
         <v>573.49300000000005</v>
@@ -8642,7 +8643,7 @@
         <v>4.66</v>
       </c>
       <c r="L197">
-        <v>-0.03</v>
+        <v>248.65049999999999</v>
       </c>
       <c r="M197">
         <v>573.49300000000005</v>
@@ -8683,7 +8684,7 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="L198">
-        <v>5.0000000000000001E-3</v>
+        <v>247.9709</v>
       </c>
       <c r="M198">
         <v>573.49300000000005</v>
@@ -8724,7 +8725,7 @@
         <v>4.7</v>
       </c>
       <c r="L199">
-        <v>2.8000000000000001E-2</v>
+        <v>249.42490000000001</v>
       </c>
       <c r="M199">
         <v>573.49300000000005</v>
@@ -8765,7 +8766,7 @@
         <v>4.76</v>
       </c>
       <c r="L200">
-        <v>0.02</v>
+        <v>252.03800000000001</v>
       </c>
       <c r="M200">
         <v>573.49300000000005</v>
@@ -8806,7 +8807,7 @@
         <v>4.75</v>
       </c>
       <c r="L201">
-        <v>5.0999999999999997E-2</v>
+        <v>250.18770000000001</v>
       </c>
       <c r="M201">
         <v>573.49300000000005</v>
@@ -8847,7 +8848,7 @@
         <v>4.76</v>
       </c>
       <c r="L202">
-        <v>1.6E-2</v>
+        <v>251.92240000000001</v>
       </c>
       <c r="M202">
         <v>573.49300000000005</v>
@@ -8888,7 +8889,7 @@
         <v>4.79</v>
       </c>
       <c r="L203">
-        <v>4.2000000000000003E-2</v>
+        <v>253.7492</v>
       </c>
       <c r="M203">
         <v>573.49300000000005</v>
@@ -8929,7 +8930,7 @@
         <v>4.72</v>
       </c>
       <c r="L204">
-        <v>3.2000000000000001E-2</v>
+        <v>254.67670000000001</v>
       </c>
       <c r="M204">
         <v>2139.8209999999999</v>
@@ -8970,7 +8971,7 @@
         <v>4.71</v>
       </c>
       <c r="L205">
-        <v>2.1000000000000001E-2</v>
+        <v>255.75210000000001</v>
       </c>
       <c r="M205">
         <v>2024.163</v>
@@ -9011,7 +9012,7 @@
         <v>4.62</v>
       </c>
       <c r="L206">
-        <v>5.3999999999999999E-2</v>
+        <v>254.65389999999999</v>
       </c>
       <c r="M206">
         <v>1933.84</v>
@@ -9052,7 +9053,7 @@
         <v>4.51</v>
       </c>
       <c r="L207">
-        <v>0.16200000000000001</v>
+        <v>249.8588</v>
       </c>
       <c r="M207">
         <v>1855.146</v>
@@ -9093,7 +9094,7 @@
         <v>4.55</v>
       </c>
       <c r="L208">
-        <v>9.5000000000000001E-2</v>
+        <v>250.82499999999999</v>
       </c>
       <c r="M208">
         <v>1776.4459999999999</v>
@@ -9134,7 +9135,7 @@
         <v>4.54</v>
       </c>
       <c r="L209">
-        <v>9.7000000000000003E-2</v>
+        <v>248.9237</v>
       </c>
       <c r="M209">
         <v>1709.1379999999999</v>
@@ -9175,7 +9176,7 @@
         <v>4.45</v>
       </c>
       <c r="L210">
-        <v>8.6999999999999994E-2</v>
+        <v>249.41759999999999</v>
       </c>
       <c r="M210">
         <v>1525.3510000000001</v>
@@ -9216,7 +9217,7 @@
         <v>4.41</v>
       </c>
       <c r="L211">
-        <v>5.8000000000000003E-2</v>
+        <v>250.6326</v>
       </c>
       <c r="M211">
         <v>949.83</v>
@@ -9257,7 +9258,7 @@
         <v>4.41</v>
       </c>
       <c r="L212">
-        <v>2.1999999999999999E-2</v>
+        <v>255.12989999999999</v>
       </c>
       <c r="M212">
         <v>927.14099999999996</v>
@@ -9298,7 +9299,7 @@
         <v>3.1</v>
       </c>
       <c r="L213">
-        <v>2.5000000000000001E-2</v>
+        <v>253.63409999999999</v>
       </c>
       <c r="M213">
         <v>848.62800000000004</v>
@@ -9339,7 +9340,7 @@
         <v>2.99</v>
       </c>
       <c r="L214">
-        <v>7.1999999999999995E-2</v>
+        <v>249.8758</v>
       </c>
       <c r="M214">
         <v>780.37599999999998</v>
@@ -9380,7 +9381,7 @@
         <v>3.07</v>
       </c>
       <c r="L215">
-        <v>9.9000000000000005E-2</v>
+        <v>250.1095</v>
       </c>
       <c r="M215">
         <v>387.935</v>
@@ -9421,7 +9422,7 @@
         <v>3.21</v>
       </c>
       <c r="L216">
-        <v>5.7000000000000002E-2</v>
+        <v>253.2073</v>
       </c>
       <c r="M216">
         <v>368.15800000000002</v>
@@ -9462,7 +9463,7 @@
         <v>3.24</v>
       </c>
       <c r="L217">
-        <v>7.0999999999999994E-2</v>
+        <v>250.34479999999999</v>
       </c>
       <c r="M217">
         <v>345.774</v>
@@ -9503,7 +9504,7 @@
         <v>3.23</v>
       </c>
       <c r="L218">
-        <v>0.17799999999999999</v>
+        <v>246.5257</v>
       </c>
       <c r="M218">
         <v>341.95299999999997</v>
@@ -9544,7 +9545,7 @@
         <v>3.48</v>
       </c>
       <c r="L219">
-        <v>0.192</v>
+        <v>240.83609999999999</v>
       </c>
       <c r="M219">
         <v>326.65199999999999</v>
@@ -9585,7 +9586,7 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="L220">
-        <v>0.22</v>
+        <v>234.71719999999999</v>
       </c>
       <c r="M220">
         <v>309.72800000000001</v>
@@ -9626,7 +9627,7 @@
         <v>4.38</v>
       </c>
       <c r="L221">
-        <v>0.23</v>
+        <v>227.20930000000001</v>
       </c>
       <c r="M221">
         <v>291.27199999999999</v>
@@ -9667,7 +9668,7 @@
         <v>4.68</v>
       </c>
       <c r="L222">
-        <v>0.24299999999999999</v>
+        <v>222.9665</v>
       </c>
       <c r="M222">
         <v>256.69900000000001</v>
@@ -9708,7 +9709,7 @@
         <v>5.41</v>
       </c>
       <c r="L223">
-        <v>0.23100000000000001</v>
+        <v>217.4325</v>
       </c>
       <c r="M223">
         <v>250.43299999999999</v>
@@ -9749,7 +9750,7 @@
         <v>5.81</v>
       </c>
       <c r="L224">
-        <v>0.185</v>
+        <v>227.0547</v>
       </c>
       <c r="M224">
         <v>244.739</v>
@@ -9790,7 +9791,7 @@
         <v>6.17</v>
       </c>
       <c r="L225">
-        <v>0.22600000000000001</v>
+        <v>214.17169999999999</v>
       </c>
       <c r="M225">
         <v>241.32</v>
@@ -9831,7 +9832,7 @@
         <v>6.54</v>
       </c>
       <c r="L226">
-        <v>0.24399999999999999</v>
+        <v>204.42689999999999</v>
       </c>
       <c r="M226">
         <v>240.01</v>
@@ -9872,7 +9873,7 @@
         <v>7.03</v>
       </c>
       <c r="L227">
-        <v>0.248</v>
+        <v>206.19919999999999</v>
       </c>
       <c r="M227">
         <v>234.62899999999999</v>
@@ -9913,7 +9914,7 @@
         <v>7.35</v>
       </c>
       <c r="L228">
-        <v>0.253</v>
+        <v>211.26240000000001</v>
       </c>
       <c r="M228">
         <v>222.97200000000001</v>
@@ -9954,7 +9955,7 @@
         <v>7.52</v>
       </c>
       <c r="L229">
-        <v>0.42199999999999999</v>
+        <v>202.94589999999999</v>
       </c>
       <c r="M229">
         <v>167.636</v>
@@ -9995,7 +9996,7 @@
         <v>7.75</v>
       </c>
       <c r="L230">
-        <v>0.496</v>
+        <v>207.7535</v>
       </c>
       <c r="M230">
         <v>139.36199999999999</v>
@@ -10036,7 +10037,7 @@
         <v>7.97</v>
       </c>
       <c r="L231">
-        <v>0.505</v>
+        <v>203.45859999999999</v>
       </c>
       <c r="M231">
         <v>117.79900000000001</v>
@@ -10077,7 +10078,7 @@
         <v>8.34</v>
       </c>
       <c r="L232">
-        <v>0.35099999999999998</v>
+        <v>207.46870000000001</v>
       </c>
       <c r="M232">
         <v>120.251</v>
@@ -10118,7 +10119,7 @@
         <v>8.39</v>
       </c>
       <c r="L233">
-        <v>0.39400000000000002</v>
+        <v>207.4288</v>
       </c>
       <c r="M233">
         <v>112.224</v>
@@ -10159,7 +10160,7 @@
         <v>8.44</v>
       </c>
       <c r="L234">
-        <v>0.436</v>
+        <v>207.68719999999999</v>
       </c>
       <c r="M234">
         <v>99.698999999999998</v>
@@ -10200,7 +10201,7 @@
         <v>8.52</v>
       </c>
       <c r="L235">
-        <v>0.40100000000000002</v>
+        <v>207.018</v>
       </c>
       <c r="M235">
         <v>97.552000000000007</v>
@@ -10241,7 +10242,7 @@
         <v>8.51</v>
       </c>
       <c r="L236">
-        <v>0.61199999999999999</v>
+        <v>207.9051</v>
       </c>
       <c r="M236">
         <v>93</v>
@@ -10282,7 +10283,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="L237">
-        <v>0.65100000000000002</v>
+        <v>208.20269999999999</v>
       </c>
       <c r="M237">
         <v>91.745999999999995</v>
@@ -10323,7 +10324,7 @@
         <v>8.2799999999999994</v>
       </c>
       <c r="L238">
-        <v>0.76500000000000001</v>
+        <v>204.08860000000001</v>
       </c>
       <c r="M238">
         <v>91.733000000000004</v>
@@ -10364,7 +10365,7 @@
         <v>8.1199999999999992</v>
       </c>
       <c r="L239">
-        <v>0.94699999999999995</v>
+        <v>204.5729</v>
       </c>
       <c r="M239">
         <v>90.930999999999997</v>
@@ -10405,7 +10406,7 @@
         <v>7.68</v>
       </c>
       <c r="L240">
-        <v>0.67200000000000004</v>
+        <v>210.63810000000001</v>
       </c>
       <c r="M240">
         <v>90.858000000000004</v>
@@ -10446,7 +10447,7 @@
         <v>7.6</v>
       </c>
       <c r="L241">
-        <v>0.61399999999999999</v>
+        <v>218.14410000000001</v>
       </c>
       <c r="M241">
         <v>90.953000000000003</v>

--- a/gogn (1).xlsx
+++ b/gogn (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\center1.ad.local\dfs$\IS\RVK\Desktop02\sigurdurbl\Desktop\Lokaverkefni\lokaverkefni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838A67E5-7790-40FF-9DD9-6985AC3E791B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE12D4A-B452-4ABB-A25B-14068F601C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{24A245BC-99D2-4089-A6B1-978942BED1C0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{24A245BC-99D2-4089-A6B1-978942BED1C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Indices" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13785" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13856" uniqueCount="52">
   <si>
     <t>Dates</t>
   </si>
@@ -552,7 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355A1C2B-031B-42D4-B4D4-5B91EAB1C3FA}">
   <dimension ref="A1:M4209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -22366,8 +22366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7933F798-F8DE-4335-8BBF-1CB9F4A1E00B}">
   <dimension ref="A1:BQ240"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A240" sqref="A240:XFD240"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="L236" sqref="L236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29476,8 +29476,8 @@
       <c r="K35" t="s">
         <v>3</v>
       </c>
-      <c r="L35">
-        <v>32.5</v>
+      <c r="L35" t="s">
+        <v>3</v>
       </c>
       <c r="M35" t="s">
         <v>3</v>
@@ -29685,8 +29685,8 @@
       <c r="K36" t="s">
         <v>3</v>
       </c>
-      <c r="L36">
-        <v>32.6</v>
+      <c r="L36" t="s">
+        <v>3</v>
       </c>
       <c r="M36" t="s">
         <v>3</v>
@@ -29894,8 +29894,8 @@
       <c r="K37" t="s">
         <v>3</v>
       </c>
-      <c r="L37">
-        <v>37.4</v>
+      <c r="L37" t="s">
+        <v>3</v>
       </c>
       <c r="M37" t="s">
         <v>3</v>
@@ -30103,8 +30103,8 @@
       <c r="K38" t="s">
         <v>3</v>
       </c>
-      <c r="L38">
-        <v>33.700000000000003</v>
+      <c r="L38" t="s">
+        <v>3</v>
       </c>
       <c r="M38" t="s">
         <v>3</v>
@@ -30312,8 +30312,8 @@
       <c r="K39" t="s">
         <v>3</v>
       </c>
-      <c r="L39">
-        <v>34.200000000000003</v>
+      <c r="L39" t="s">
+        <v>3</v>
       </c>
       <c r="M39" t="s">
         <v>3</v>
@@ -30521,8 +30521,8 @@
       <c r="K40" t="s">
         <v>3</v>
       </c>
-      <c r="L40">
-        <v>42.75</v>
+      <c r="L40" t="s">
+        <v>3</v>
       </c>
       <c r="M40" t="s">
         <v>3</v>
@@ -30730,8 +30730,8 @@
       <c r="K41" t="s">
         <v>3</v>
       </c>
-      <c r="L41">
-        <v>40.299999999999997</v>
+      <c r="L41" t="s">
+        <v>3</v>
       </c>
       <c r="M41" t="s">
         <v>3</v>
@@ -30939,8 +30939,8 @@
       <c r="K42" t="s">
         <v>3</v>
       </c>
-      <c r="L42">
-        <v>40.75</v>
+      <c r="L42" t="s">
+        <v>3</v>
       </c>
       <c r="M42" t="s">
         <v>3</v>
@@ -31148,8 +31148,8 @@
       <c r="K43" t="s">
         <v>3</v>
       </c>
-      <c r="L43">
-        <v>41.1</v>
+      <c r="L43" t="s">
+        <v>3</v>
       </c>
       <c r="M43" t="s">
         <v>3</v>
@@ -31357,8 +31357,8 @@
       <c r="K44" t="s">
         <v>3</v>
       </c>
-      <c r="L44">
-        <v>39.75</v>
+      <c r="L44" t="s">
+        <v>3</v>
       </c>
       <c r="M44">
         <v>28.756</v>
@@ -31566,8 +31566,8 @@
       <c r="K45" t="s">
         <v>3</v>
       </c>
-      <c r="L45">
-        <v>42</v>
+      <c r="L45" t="s">
+        <v>3</v>
       </c>
       <c r="M45">
         <v>27.683</v>
@@ -31775,8 +31775,8 @@
       <c r="K46" t="s">
         <v>3</v>
       </c>
-      <c r="L46">
-        <v>37.1</v>
+      <c r="L46" t="s">
+        <v>3</v>
       </c>
       <c r="M46">
         <v>27.256</v>
@@ -31984,8 +31984,8 @@
       <c r="K47" t="s">
         <v>3</v>
       </c>
-      <c r="L47">
-        <v>34.700000000000003</v>
+      <c r="L47" t="s">
+        <v>3</v>
       </c>
       <c r="M47">
         <v>26.635999999999999</v>
@@ -32193,8 +32193,8 @@
       <c r="K48" t="s">
         <v>3</v>
       </c>
-      <c r="L48">
-        <v>32.049999999999997</v>
+      <c r="L48" t="s">
+        <v>3</v>
       </c>
       <c r="M48">
         <v>28.414999999999999</v>
@@ -32402,8 +32402,8 @@
       <c r="K49" t="s">
         <v>3</v>
       </c>
-      <c r="L49">
-        <v>29.9</v>
+      <c r="L49" t="s">
+        <v>3</v>
       </c>
       <c r="M49">
         <v>27.885000000000002</v>
@@ -32611,8 +32611,8 @@
       <c r="K50" t="s">
         <v>3</v>
       </c>
-      <c r="L50">
-        <v>23.15</v>
+      <c r="L50" t="s">
+        <v>3</v>
       </c>
       <c r="M50">
         <v>29.286000000000001</v>
@@ -32820,8 +32820,8 @@
       <c r="K51" t="s">
         <v>3</v>
       </c>
-      <c r="L51">
-        <v>21.65</v>
+      <c r="L51" t="s">
+        <v>3</v>
       </c>
       <c r="M51">
         <v>29.719000000000001</v>
@@ -33029,8 +33029,8 @@
       <c r="K52" t="s">
         <v>3</v>
       </c>
-      <c r="L52">
-        <v>20.8</v>
+      <c r="L52" t="s">
+        <v>3</v>
       </c>
       <c r="M52">
         <v>29.780999999999999</v>
@@ -33238,8 +33238,8 @@
       <c r="K53" t="s">
         <v>3</v>
       </c>
-      <c r="L53">
-        <v>14.3</v>
+      <c r="L53" t="s">
+        <v>3</v>
       </c>
       <c r="M53">
         <v>34.511000000000003</v>
@@ -33447,8 +33447,8 @@
       <c r="K54" t="s">
         <v>3</v>
       </c>
-      <c r="L54">
-        <v>14.4</v>
+      <c r="L54" t="s">
+        <v>3</v>
       </c>
       <c r="M54">
         <v>33.567999999999998</v>
@@ -33656,8 +33656,8 @@
       <c r="K55" t="s">
         <v>3</v>
       </c>
-      <c r="L55">
-        <v>14.4</v>
+      <c r="L55" t="s">
+        <v>3</v>
       </c>
       <c r="M55">
         <v>31</v>
@@ -33865,8 +33865,8 @@
       <c r="K56" t="s">
         <v>3</v>
       </c>
-      <c r="L56">
-        <v>4</v>
+      <c r="L56" t="s">
+        <v>3</v>
       </c>
       <c r="M56">
         <v>51.243000000000002</v>
@@ -34074,8 +34074,8 @@
       <c r="K57" t="s">
         <v>3</v>
       </c>
-      <c r="L57">
-        <v>1.34</v>
+      <c r="L57" t="s">
+        <v>3</v>
       </c>
       <c r="M57">
         <v>143.142</v>
@@ -34283,8 +34283,8 @@
       <c r="K58" t="s">
         <v>3</v>
       </c>
-      <c r="L58">
-        <v>1.31</v>
+      <c r="L58" t="s">
+        <v>3</v>
       </c>
       <c r="M58">
         <v>144.16499999999999</v>
@@ -34492,8 +34492,8 @@
       <c r="K59" t="s">
         <v>3</v>
       </c>
-      <c r="L59">
-        <v>1.25</v>
+      <c r="L59" t="s">
+        <v>3</v>
       </c>
       <c r="M59">
         <v>144.363</v>
@@ -34701,8 +34701,8 @@
       <c r="K60" t="s">
         <v>3</v>
       </c>
-      <c r="L60">
-        <v>1</v>
+      <c r="L60" t="s">
+        <v>3</v>
       </c>
       <c r="M60">
         <v>147.03800000000001</v>
@@ -34910,8 +34910,8 @@
       <c r="K61" t="s">
         <v>3</v>
       </c>
-      <c r="L61">
-        <v>0.5</v>
+      <c r="L61" t="s">
+        <v>3</v>
       </c>
       <c r="M61">
         <v>171.54300000000001</v>
@@ -35119,8 +35119,8 @@
       <c r="K62" t="s">
         <v>3</v>
       </c>
-      <c r="L62">
-        <v>1</v>
+      <c r="L62" t="s">
+        <v>3</v>
       </c>
       <c r="M62">
         <v>181.751</v>
@@ -35328,8 +35328,8 @@
       <c r="K63" t="s">
         <v>3</v>
       </c>
-      <c r="L63">
-        <v>1</v>
+      <c r="L63" t="s">
+        <v>3</v>
       </c>
       <c r="M63">
         <v>188.506</v>
@@ -35537,8 +35537,8 @@
       <c r="K64" t="s">
         <v>3</v>
       </c>
-      <c r="L64">
-        <v>1</v>
+      <c r="L64" t="s">
+        <v>3</v>
       </c>
       <c r="M64">
         <v>193.678</v>
@@ -35746,8 +35746,8 @@
       <c r="K65" t="s">
         <v>3</v>
       </c>
-      <c r="L65">
-        <v>0.5</v>
+      <c r="L65" t="s">
+        <v>3</v>
       </c>
       <c r="M65">
         <v>212.75700000000001</v>
@@ -35955,8 +35955,8 @@
       <c r="K66" t="s">
         <v>3</v>
       </c>
-      <c r="L66">
-        <v>0.5</v>
+      <c r="L66" t="s">
+        <v>3</v>
       </c>
       <c r="M66">
         <v>222.006</v>
@@ -36164,8 +36164,8 @@
       <c r="K67" t="s">
         <v>3</v>
       </c>
-      <c r="L67">
-        <v>0.5</v>
+      <c r="L67" t="s">
+        <v>3</v>
       </c>
       <c r="M67">
         <v>231.39400000000001</v>
@@ -36373,8 +36373,8 @@
       <c r="K68" t="s">
         <v>3</v>
       </c>
-      <c r="L68">
-        <v>0.5</v>
+      <c r="L68" t="s">
+        <v>3</v>
       </c>
       <c r="M68">
         <v>243.02099999999999</v>
@@ -36582,8 +36582,8 @@
       <c r="K69" t="s">
         <v>3</v>
       </c>
-      <c r="L69">
-        <v>0.5</v>
+      <c r="L69" t="s">
+        <v>3</v>
       </c>
       <c r="M69">
         <v>256.99799999999999</v>
@@ -36791,8 +36791,8 @@
       <c r="K70" t="s">
         <v>3</v>
       </c>
-      <c r="L70">
-        <v>0.5</v>
+      <c r="L70" t="s">
+        <v>3</v>
       </c>
       <c r="M70">
         <v>259.06799999999998</v>
@@ -37000,8 +37000,8 @@
       <c r="K71" t="s">
         <v>3</v>
       </c>
-      <c r="L71">
-        <v>0.5</v>
+      <c r="L71" t="s">
+        <v>3</v>
       </c>
       <c r="M71">
         <v>259.06799999999998</v>
@@ -37209,8 +37209,8 @@
       <c r="K72" t="s">
         <v>3</v>
       </c>
-      <c r="L72">
-        <v>0.5</v>
+      <c r="L72" t="s">
+        <v>3</v>
       </c>
       <c r="M72">
         <v>259.06799999999998</v>
@@ -37418,8 +37418,8 @@
       <c r="K73" t="s">
         <v>3</v>
       </c>
-      <c r="L73">
-        <v>0.5</v>
+      <c r="L73" t="s">
+        <v>3</v>
       </c>
       <c r="M73">
         <v>259.06799999999998</v>
@@ -37627,8 +37627,8 @@
       <c r="K74" t="s">
         <v>3</v>
       </c>
-      <c r="L74">
-        <v>0.5</v>
+      <c r="L74" t="s">
+        <v>3</v>
       </c>
       <c r="M74">
         <v>259.06799999999998</v>
@@ -37836,8 +37836,8 @@
       <c r="K75" t="s">
         <v>3</v>
       </c>
-      <c r="L75">
-        <v>0.5</v>
+      <c r="L75" t="s">
+        <v>3</v>
       </c>
       <c r="M75">
         <v>259.06799999999998</v>
@@ -38045,8 +38045,8 @@
       <c r="K76" t="s">
         <v>3</v>
       </c>
-      <c r="L76">
-        <v>0.5</v>
+      <c r="L76" t="s">
+        <v>3</v>
       </c>
       <c r="M76">
         <v>259.06799999999998</v>
@@ -38254,8 +38254,8 @@
       <c r="K77" t="s">
         <v>3</v>
       </c>
-      <c r="L77">
-        <v>0.5</v>
+      <c r="L77" t="s">
+        <v>3</v>
       </c>
       <c r="M77">
         <v>259.06799999999998</v>
@@ -38463,8 +38463,8 @@
       <c r="K78" t="s">
         <v>3</v>
       </c>
-      <c r="L78">
-        <v>0.5</v>
+      <c r="L78" t="s">
+        <v>3</v>
       </c>
       <c r="M78">
         <v>259.06799999999998</v>
@@ -38672,8 +38672,8 @@
       <c r="K79" t="s">
         <v>3</v>
       </c>
-      <c r="L79">
-        <v>0.5</v>
+      <c r="L79" t="s">
+        <v>3</v>
       </c>
       <c r="M79">
         <v>259.06799999999998</v>
@@ -38881,8 +38881,8 @@
       <c r="K80" t="s">
         <v>3</v>
       </c>
-      <c r="L80">
-        <v>0.5</v>
+      <c r="L80" t="s">
+        <v>3</v>
       </c>
       <c r="M80">
         <v>259.06799999999998</v>
@@ -39090,8 +39090,8 @@
       <c r="K81" t="s">
         <v>3</v>
       </c>
-      <c r="L81">
-        <v>0.5</v>
+      <c r="L81" t="s">
+        <v>3</v>
       </c>
       <c r="M81">
         <v>259.06799999999998</v>
@@ -39299,8 +39299,8 @@
       <c r="K82" t="s">
         <v>3</v>
       </c>
-      <c r="L82">
-        <v>0.5</v>
+      <c r="L82" t="s">
+        <v>3</v>
       </c>
       <c r="M82">
         <v>259.06799999999998</v>
@@ -39508,8 +39508,8 @@
       <c r="K83" t="s">
         <v>3</v>
       </c>
-      <c r="L83">
-        <v>0.5</v>
+      <c r="L83" t="s">
+        <v>3</v>
       </c>
       <c r="M83">
         <v>259.06799999999998</v>
@@ -39717,8 +39717,8 @@
       <c r="K84" t="s">
         <v>3</v>
       </c>
-      <c r="L84">
-        <v>0.5</v>
+      <c r="L84" t="s">
+        <v>3</v>
       </c>
       <c r="M84">
         <v>259.06799999999998</v>
@@ -39926,8 +39926,8 @@
       <c r="K85" t="s">
         <v>3</v>
       </c>
-      <c r="L85">
-        <v>0.5</v>
+      <c r="L85" t="s">
+        <v>3</v>
       </c>
       <c r="M85">
         <v>259.06799999999998</v>
@@ -40135,8 +40135,8 @@
       <c r="K86" t="s">
         <v>3</v>
       </c>
-      <c r="L86">
-        <v>0.5</v>
+      <c r="L86" t="s">
+        <v>3</v>
       </c>
       <c r="M86">
         <v>259.06799999999998</v>
@@ -40344,8 +40344,8 @@
       <c r="K87" t="s">
         <v>3</v>
       </c>
-      <c r="L87">
-        <v>0.5</v>
+      <c r="L87" t="s">
+        <v>3</v>
       </c>
       <c r="M87">
         <v>259.06799999999998</v>
@@ -40553,8 +40553,8 @@
       <c r="K88" t="s">
         <v>3</v>
       </c>
-      <c r="L88">
-        <v>0.5</v>
+      <c r="L88" t="s">
+        <v>3</v>
       </c>
       <c r="M88">
         <v>259.06799999999998</v>
@@ -40762,8 +40762,8 @@
       <c r="K89" t="s">
         <v>3</v>
       </c>
-      <c r="L89">
-        <v>0.5</v>
+      <c r="L89" t="s">
+        <v>3</v>
       </c>
       <c r="M89">
         <v>259.06799999999998</v>
@@ -40971,8 +40971,8 @@
       <c r="K90" t="s">
         <v>3</v>
       </c>
-      <c r="L90">
-        <v>0.5</v>
+      <c r="L90" t="s">
+        <v>3</v>
       </c>
       <c r="M90">
         <v>259.06799999999998</v>
@@ -41180,8 +41180,8 @@
       <c r="K91" t="s">
         <v>3</v>
       </c>
-      <c r="L91">
-        <v>0.5</v>
+      <c r="L91" t="s">
+        <v>3</v>
       </c>
       <c r="M91">
         <v>259.06799999999998</v>
@@ -41389,8 +41389,8 @@
       <c r="K92" t="s">
         <v>3</v>
       </c>
-      <c r="L92">
-        <v>0.5</v>
+      <c r="L92" t="s">
+        <v>3</v>
       </c>
       <c r="M92">
         <v>259.06799999999998</v>
@@ -41598,8 +41598,8 @@
       <c r="K93" t="s">
         <v>3</v>
       </c>
-      <c r="L93">
-        <v>0.5</v>
+      <c r="L93" t="s">
+        <v>3</v>
       </c>
       <c r="M93">
         <v>259.06799999999998</v>
@@ -41807,8 +41807,8 @@
       <c r="K94" t="s">
         <v>3</v>
       </c>
-      <c r="L94">
-        <v>0.5</v>
+      <c r="L94" t="s">
+        <v>3</v>
       </c>
       <c r="M94">
         <v>259.06799999999998</v>
@@ -42016,8 +42016,8 @@
       <c r="K95" t="s">
         <v>3</v>
       </c>
-      <c r="L95">
-        <v>0.5</v>
+      <c r="L95" t="s">
+        <v>3</v>
       </c>
       <c r="M95">
         <v>259.06799999999998</v>
@@ -42225,8 +42225,8 @@
       <c r="K96" t="s">
         <v>3</v>
       </c>
-      <c r="L96">
-        <v>0.5</v>
+      <c r="L96" t="s">
+        <v>3</v>
       </c>
       <c r="M96">
         <v>259.06799999999998</v>
@@ -42434,8 +42434,8 @@
       <c r="K97" t="s">
         <v>3</v>
       </c>
-      <c r="L97">
-        <v>0.5</v>
+      <c r="L97" t="s">
+        <v>3</v>
       </c>
       <c r="M97">
         <v>259.06799999999998</v>
@@ -42643,8 +42643,8 @@
       <c r="K98" t="s">
         <v>3</v>
       </c>
-      <c r="L98">
-        <v>0.5</v>
+      <c r="L98" t="s">
+        <v>3</v>
       </c>
       <c r="M98">
         <v>259.06799999999998</v>
@@ -42852,8 +42852,8 @@
       <c r="K99" t="s">
         <v>3</v>
       </c>
-      <c r="L99">
-        <v>0.5</v>
+      <c r="L99" t="s">
+        <v>3</v>
       </c>
       <c r="M99">
         <v>259.06799999999998</v>
@@ -43061,8 +43061,8 @@
       <c r="K100" t="s">
         <v>3</v>
       </c>
-      <c r="L100">
-        <v>0.5</v>
+      <c r="L100" t="s">
+        <v>3</v>
       </c>
       <c r="M100">
         <v>259.06799999999998</v>
@@ -43270,8 +43270,8 @@
       <c r="K101" t="s">
         <v>3</v>
       </c>
-      <c r="L101">
-        <v>0.5</v>
+      <c r="L101" t="s">
+        <v>3</v>
       </c>
       <c r="M101">
         <v>259.06799999999998</v>
@@ -43479,8 +43479,8 @@
       <c r="K102" t="s">
         <v>3</v>
       </c>
-      <c r="L102">
-        <v>0.5</v>
+      <c r="L102" t="s">
+        <v>3</v>
       </c>
       <c r="M102">
         <v>259.06799999999998</v>
@@ -43688,8 +43688,8 @@
       <c r="K103" t="s">
         <v>3</v>
       </c>
-      <c r="L103">
-        <v>0.5</v>
+      <c r="L103" t="s">
+        <v>3</v>
       </c>
       <c r="M103">
         <v>259.06799999999998</v>
@@ -43897,8 +43897,8 @@
       <c r="K104" t="s">
         <v>3</v>
       </c>
-      <c r="L104">
-        <v>0.5</v>
+      <c r="L104" t="s">
+        <v>3</v>
       </c>
       <c r="M104">
         <v>259.06799999999998</v>
@@ -44106,8 +44106,8 @@
       <c r="K105" t="s">
         <v>3</v>
       </c>
-      <c r="L105">
-        <v>0.5</v>
+      <c r="L105" t="s">
+        <v>3</v>
       </c>
       <c r="M105">
         <v>259.06799999999998</v>

--- a/gogn (1).xlsx
+++ b/gogn (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\center1.ad.local\dfs$\IS\RVK\Desktop02\sigurdurbl\Desktop\Lokaverkefni\lokaverkefni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE12D4A-B452-4ABB-A25B-14068F601C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A3C992-E1CD-4C05-B7DD-A5F95841E4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{24A245BC-99D2-4089-A6B1-978942BED1C0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="3" xr2:uid="{24A245BC-99D2-4089-A6B1-978942BED1C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Indices" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13856" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13927" uniqueCount="52">
   <si>
     <t>Dates</t>
   </si>
@@ -22366,8 +22366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7933F798-F8DE-4335-8BBF-1CB9F4A1E00B}">
   <dimension ref="A1:BQ240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="L236" sqref="L236"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -72299,7 +72299,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7198A0AF-8BBB-46F4-B3EE-C16F50D1EDA1}">
   <dimension ref="A1:AI239"/>
   <sheetViews>
-    <sheetView topLeftCell="A205" workbookViewId="0"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="H104" sqref="H104"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -75890,8 +75892,8 @@
       <c r="F34" t="s">
         <v>3</v>
       </c>
-      <c r="G34">
-        <v>32.5</v>
+      <c r="G34" t="s">
+        <v>3</v>
       </c>
       <c r="H34" t="s">
         <v>3</v>
@@ -75997,8 +75999,8 @@
       <c r="F35" t="s">
         <v>3</v>
       </c>
-      <c r="G35">
-        <v>32.6</v>
+      <c r="G35" t="s">
+        <v>3</v>
       </c>
       <c r="H35" t="s">
         <v>3</v>
@@ -76104,8 +76106,8 @@
       <c r="F36" t="s">
         <v>3</v>
       </c>
-      <c r="G36">
-        <v>37.4</v>
+      <c r="G36" t="s">
+        <v>3</v>
       </c>
       <c r="H36" t="s">
         <v>3</v>
@@ -76211,8 +76213,8 @@
       <c r="F37" t="s">
         <v>3</v>
       </c>
-      <c r="G37">
-        <v>33.700000000000003</v>
+      <c r="G37" t="s">
+        <v>3</v>
       </c>
       <c r="H37" t="s">
         <v>3</v>
@@ -76318,8 +76320,8 @@
       <c r="F38" t="s">
         <v>3</v>
       </c>
-      <c r="G38">
-        <v>34.200000000000003</v>
+      <c r="G38" t="s">
+        <v>3</v>
       </c>
       <c r="H38" t="s">
         <v>3</v>
@@ -76425,8 +76427,8 @@
       <c r="F39" t="s">
         <v>3</v>
       </c>
-      <c r="G39">
-        <v>42.75</v>
+      <c r="G39" t="s">
+        <v>3</v>
       </c>
       <c r="H39" t="s">
         <v>3</v>
@@ -76532,8 +76534,8 @@
       <c r="F40" t="s">
         <v>3</v>
       </c>
-      <c r="G40">
-        <v>40.299999999999997</v>
+      <c r="G40" t="s">
+        <v>3</v>
       </c>
       <c r="H40" t="s">
         <v>3</v>
@@ -76639,8 +76641,8 @@
       <c r="F41" t="s">
         <v>3</v>
       </c>
-      <c r="G41">
-        <v>40.75</v>
+      <c r="G41" t="s">
+        <v>3</v>
       </c>
       <c r="H41" t="s">
         <v>3</v>
@@ -76746,8 +76748,8 @@
       <c r="F42" t="s">
         <v>3</v>
       </c>
-      <c r="G42">
-        <v>41.1</v>
+      <c r="G42" t="s">
+        <v>3</v>
       </c>
       <c r="H42" t="s">
         <v>3</v>
@@ -76853,8 +76855,8 @@
       <c r="F43" t="s">
         <v>3</v>
       </c>
-      <c r="G43">
-        <v>39.75</v>
+      <c r="G43" t="s">
+        <v>3</v>
       </c>
       <c r="H43" t="s">
         <v>3</v>
@@ -76960,8 +76962,8 @@
       <c r="F44" t="s">
         <v>3</v>
       </c>
-      <c r="G44">
-        <v>42</v>
+      <c r="G44" t="s">
+        <v>3</v>
       </c>
       <c r="H44" t="s">
         <v>3</v>
@@ -77067,8 +77069,8 @@
       <c r="F45" t="s">
         <v>3</v>
       </c>
-      <c r="G45">
-        <v>37.1</v>
+      <c r="G45" t="s">
+        <v>3</v>
       </c>
       <c r="H45" t="s">
         <v>3</v>
@@ -77174,8 +77176,8 @@
       <c r="F46" t="s">
         <v>3</v>
       </c>
-      <c r="G46">
-        <v>34.700000000000003</v>
+      <c r="G46" t="s">
+        <v>3</v>
       </c>
       <c r="H46" t="s">
         <v>3</v>
@@ -77281,8 +77283,8 @@
       <c r="F47" t="s">
         <v>3</v>
       </c>
-      <c r="G47">
-        <v>32.049999999999997</v>
+      <c r="G47" t="s">
+        <v>3</v>
       </c>
       <c r="H47" t="s">
         <v>3</v>
@@ -77388,8 +77390,8 @@
       <c r="F48" t="s">
         <v>3</v>
       </c>
-      <c r="G48">
-        <v>29.9</v>
+      <c r="G48" t="s">
+        <v>3</v>
       </c>
       <c r="H48" t="s">
         <v>3</v>
@@ -77495,8 +77497,8 @@
       <c r="F49" t="s">
         <v>3</v>
       </c>
-      <c r="G49">
-        <v>23.15</v>
+      <c r="G49" t="s">
+        <v>3</v>
       </c>
       <c r="H49" t="s">
         <v>3</v>
@@ -77602,8 +77604,8 @@
       <c r="F50" t="s">
         <v>3</v>
       </c>
-      <c r="G50">
-        <v>21.65</v>
+      <c r="G50" t="s">
+        <v>3</v>
       </c>
       <c r="H50" t="s">
         <v>3</v>
@@ -77709,8 +77711,8 @@
       <c r="F51" t="s">
         <v>3</v>
       </c>
-      <c r="G51">
-        <v>20.8</v>
+      <c r="G51" t="s">
+        <v>3</v>
       </c>
       <c r="H51" t="s">
         <v>3</v>
@@ -77816,8 +77818,8 @@
       <c r="F52" t="s">
         <v>3</v>
       </c>
-      <c r="G52">
-        <v>14.3</v>
+      <c r="G52" t="s">
+        <v>3</v>
       </c>
       <c r="H52" t="s">
         <v>3</v>
@@ -77923,8 +77925,8 @@
       <c r="F53" t="s">
         <v>3</v>
       </c>
-      <c r="G53">
-        <v>14.4</v>
+      <c r="G53" t="s">
+        <v>3</v>
       </c>
       <c r="H53" t="s">
         <v>3</v>
@@ -78030,8 +78032,8 @@
       <c r="F54" t="s">
         <v>3</v>
       </c>
-      <c r="G54">
-        <v>14.4</v>
+      <c r="G54" t="s">
+        <v>3</v>
       </c>
       <c r="H54" t="s">
         <v>3</v>
@@ -78137,8 +78139,8 @@
       <c r="F55" t="s">
         <v>3</v>
       </c>
-      <c r="G55">
-        <v>4</v>
+      <c r="G55" t="s">
+        <v>3</v>
       </c>
       <c r="H55" t="s">
         <v>3</v>
@@ -78244,8 +78246,8 @@
       <c r="F56" t="s">
         <v>3</v>
       </c>
-      <c r="G56">
-        <v>1.34</v>
+      <c r="G56" t="s">
+        <v>3</v>
       </c>
       <c r="H56" t="s">
         <v>3</v>
@@ -78351,8 +78353,8 @@
       <c r="F57" t="s">
         <v>3</v>
       </c>
-      <c r="G57">
-        <v>1.31</v>
+      <c r="G57" t="s">
+        <v>3</v>
       </c>
       <c r="H57" t="s">
         <v>3</v>
@@ -78458,8 +78460,8 @@
       <c r="F58" t="s">
         <v>3</v>
       </c>
-      <c r="G58">
-        <v>1.25</v>
+      <c r="G58" t="s">
+        <v>3</v>
       </c>
       <c r="H58" t="s">
         <v>3</v>
@@ -78565,8 +78567,8 @@
       <c r="F59" t="s">
         <v>3</v>
       </c>
-      <c r="G59">
-        <v>1</v>
+      <c r="G59" t="s">
+        <v>3</v>
       </c>
       <c r="H59" t="s">
         <v>3</v>
@@ -78672,8 +78674,8 @@
       <c r="F60" t="s">
         <v>3</v>
       </c>
-      <c r="G60">
-        <v>0.5</v>
+      <c r="G60" t="s">
+        <v>3</v>
       </c>
       <c r="H60" t="s">
         <v>3</v>
@@ -78779,8 +78781,8 @@
       <c r="F61" t="s">
         <v>3</v>
       </c>
-      <c r="G61">
-        <v>1</v>
+      <c r="G61" t="s">
+        <v>3</v>
       </c>
       <c r="H61" t="s">
         <v>3</v>
@@ -78886,8 +78888,8 @@
       <c r="F62" t="s">
         <v>3</v>
       </c>
-      <c r="G62">
-        <v>1</v>
+      <c r="G62" t="s">
+        <v>3</v>
       </c>
       <c r="H62" t="s">
         <v>3</v>
@@ -78993,8 +78995,8 @@
       <c r="F63" t="s">
         <v>3</v>
       </c>
-      <c r="G63">
-        <v>1</v>
+      <c r="G63" t="s">
+        <v>3</v>
       </c>
       <c r="H63" t="s">
         <v>3</v>
@@ -79100,8 +79102,8 @@
       <c r="F64" t="s">
         <v>3</v>
       </c>
-      <c r="G64">
-        <v>0.5</v>
+      <c r="G64" t="s">
+        <v>3</v>
       </c>
       <c r="H64" t="s">
         <v>3</v>
@@ -79207,8 +79209,8 @@
       <c r="F65" t="s">
         <v>3</v>
       </c>
-      <c r="G65">
-        <v>0.5</v>
+      <c r="G65" t="s">
+        <v>3</v>
       </c>
       <c r="H65" t="s">
         <v>3</v>
@@ -79314,8 +79316,8 @@
       <c r="F66" t="s">
         <v>3</v>
       </c>
-      <c r="G66">
-        <v>0.5</v>
+      <c r="G66" t="s">
+        <v>3</v>
       </c>
       <c r="H66" t="s">
         <v>3</v>
@@ -79421,8 +79423,8 @@
       <c r="F67" t="s">
         <v>3</v>
       </c>
-      <c r="G67">
-        <v>0.5</v>
+      <c r="G67" t="s">
+        <v>3</v>
       </c>
       <c r="H67" t="s">
         <v>3</v>
@@ -79528,8 +79530,8 @@
       <c r="F68" t="s">
         <v>3</v>
       </c>
-      <c r="G68">
-        <v>0.5</v>
+      <c r="G68" t="s">
+        <v>3</v>
       </c>
       <c r="H68" t="s">
         <v>3</v>
@@ -79635,8 +79637,8 @@
       <c r="F69" t="s">
         <v>3</v>
       </c>
-      <c r="G69">
-        <v>0.5</v>
+      <c r="G69" t="s">
+        <v>3</v>
       </c>
       <c r="H69" t="s">
         <v>3</v>
@@ -79742,8 +79744,8 @@
       <c r="F70" t="s">
         <v>3</v>
       </c>
-      <c r="G70">
-        <v>0.5</v>
+      <c r="G70" t="s">
+        <v>3</v>
       </c>
       <c r="H70" t="s">
         <v>3</v>
@@ -79849,8 +79851,8 @@
       <c r="F71" t="s">
         <v>3</v>
       </c>
-      <c r="G71">
-        <v>0.5</v>
+      <c r="G71" t="s">
+        <v>3</v>
       </c>
       <c r="H71" t="s">
         <v>3</v>
@@ -79956,8 +79958,8 @@
       <c r="F72" t="s">
         <v>3</v>
       </c>
-      <c r="G72">
-        <v>0.5</v>
+      <c r="G72" t="s">
+        <v>3</v>
       </c>
       <c r="H72" t="s">
         <v>3</v>
@@ -80063,8 +80065,8 @@
       <c r="F73" t="s">
         <v>3</v>
       </c>
-      <c r="G73">
-        <v>0.5</v>
+      <c r="G73" t="s">
+        <v>3</v>
       </c>
       <c r="H73" t="s">
         <v>3</v>
@@ -80170,8 +80172,8 @@
       <c r="F74" t="s">
         <v>3</v>
       </c>
-      <c r="G74">
-        <v>0.5</v>
+      <c r="G74" t="s">
+        <v>3</v>
       </c>
       <c r="H74" t="s">
         <v>3</v>
@@ -80277,8 +80279,8 @@
       <c r="F75" t="s">
         <v>3</v>
       </c>
-      <c r="G75">
-        <v>0.5</v>
+      <c r="G75" t="s">
+        <v>3</v>
       </c>
       <c r="H75" t="s">
         <v>3</v>
@@ -80384,8 +80386,8 @@
       <c r="F76" t="s">
         <v>3</v>
       </c>
-      <c r="G76">
-        <v>0.5</v>
+      <c r="G76" t="s">
+        <v>3</v>
       </c>
       <c r="H76" t="s">
         <v>3</v>
@@ -80491,8 +80493,8 @@
       <c r="F77" t="s">
         <v>3</v>
       </c>
-      <c r="G77">
-        <v>0.5</v>
+      <c r="G77" t="s">
+        <v>3</v>
       </c>
       <c r="H77" t="s">
         <v>3</v>
@@ -80598,8 +80600,8 @@
       <c r="F78" t="s">
         <v>3</v>
       </c>
-      <c r="G78">
-        <v>0.5</v>
+      <c r="G78" t="s">
+        <v>3</v>
       </c>
       <c r="H78" t="s">
         <v>3</v>
@@ -80705,8 +80707,8 @@
       <c r="F79" t="s">
         <v>3</v>
       </c>
-      <c r="G79">
-        <v>0.5</v>
+      <c r="G79" t="s">
+        <v>3</v>
       </c>
       <c r="H79" t="s">
         <v>3</v>
@@ -80812,8 +80814,8 @@
       <c r="F80" t="s">
         <v>3</v>
       </c>
-      <c r="G80">
-        <v>0.5</v>
+      <c r="G80" t="s">
+        <v>3</v>
       </c>
       <c r="H80" t="s">
         <v>3</v>
@@ -80919,8 +80921,8 @@
       <c r="F81" t="s">
         <v>3</v>
       </c>
-      <c r="G81">
-        <v>0.5</v>
+      <c r="G81" t="s">
+        <v>3</v>
       </c>
       <c r="H81" t="s">
         <v>3</v>
@@ -81026,8 +81028,8 @@
       <c r="F82" t="s">
         <v>3</v>
       </c>
-      <c r="G82">
-        <v>0.5</v>
+      <c r="G82" t="s">
+        <v>3</v>
       </c>
       <c r="H82" t="s">
         <v>3</v>
@@ -81133,8 +81135,8 @@
       <c r="F83" t="s">
         <v>3</v>
       </c>
-      <c r="G83">
-        <v>0.5</v>
+      <c r="G83" t="s">
+        <v>3</v>
       </c>
       <c r="H83" t="s">
         <v>3</v>
@@ -81240,8 +81242,8 @@
       <c r="F84" t="s">
         <v>3</v>
       </c>
-      <c r="G84">
-        <v>0.5</v>
+      <c r="G84" t="s">
+        <v>3</v>
       </c>
       <c r="H84" t="s">
         <v>3</v>
@@ -81347,8 +81349,8 @@
       <c r="F85" t="s">
         <v>3</v>
       </c>
-      <c r="G85">
-        <v>0.5</v>
+      <c r="G85" t="s">
+        <v>3</v>
       </c>
       <c r="H85" t="s">
         <v>3</v>
@@ -81454,8 +81456,8 @@
       <c r="F86" t="s">
         <v>3</v>
       </c>
-      <c r="G86">
-        <v>0.5</v>
+      <c r="G86" t="s">
+        <v>3</v>
       </c>
       <c r="H86" t="s">
         <v>3</v>
@@ -81561,8 +81563,8 @@
       <c r="F87" t="s">
         <v>3</v>
       </c>
-      <c r="G87">
-        <v>0.5</v>
+      <c r="G87" t="s">
+        <v>3</v>
       </c>
       <c r="H87" t="s">
         <v>3</v>
@@ -81668,8 +81670,8 @@
       <c r="F88" t="s">
         <v>3</v>
       </c>
-      <c r="G88">
-        <v>0.5</v>
+      <c r="G88" t="s">
+        <v>3</v>
       </c>
       <c r="H88" t="s">
         <v>3</v>
@@ -81775,8 +81777,8 @@
       <c r="F89" t="s">
         <v>3</v>
       </c>
-      <c r="G89">
-        <v>0.5</v>
+      <c r="G89" t="s">
+        <v>3</v>
       </c>
       <c r="H89" t="s">
         <v>3</v>
@@ -81882,8 +81884,8 @@
       <c r="F90" t="s">
         <v>3</v>
       </c>
-      <c r="G90">
-        <v>0.5</v>
+      <c r="G90" t="s">
+        <v>3</v>
       </c>
       <c r="H90" t="s">
         <v>3</v>
@@ -81989,8 +81991,8 @@
       <c r="F91" t="s">
         <v>3</v>
       </c>
-      <c r="G91">
-        <v>0.5</v>
+      <c r="G91" t="s">
+        <v>3</v>
       </c>
       <c r="H91" t="s">
         <v>3</v>
@@ -82096,8 +82098,8 @@
       <c r="F92" t="s">
         <v>3</v>
       </c>
-      <c r="G92">
-        <v>0.5</v>
+      <c r="G92" t="s">
+        <v>3</v>
       </c>
       <c r="H92" t="s">
         <v>3</v>
@@ -82203,8 +82205,8 @@
       <c r="F93" t="s">
         <v>3</v>
       </c>
-      <c r="G93">
-        <v>0.5</v>
+      <c r="G93" t="s">
+        <v>3</v>
       </c>
       <c r="H93" t="s">
         <v>3</v>
@@ -82310,8 +82312,8 @@
       <c r="F94" t="s">
         <v>3</v>
       </c>
-      <c r="G94">
-        <v>0.5</v>
+      <c r="G94" t="s">
+        <v>3</v>
       </c>
       <c r="H94" t="s">
         <v>3</v>
@@ -82417,8 +82419,8 @@
       <c r="F95" t="s">
         <v>3</v>
       </c>
-      <c r="G95">
-        <v>0.5</v>
+      <c r="G95" t="s">
+        <v>3</v>
       </c>
       <c r="H95" t="s">
         <v>3</v>
@@ -82524,8 +82526,8 @@
       <c r="F96" t="s">
         <v>3</v>
       </c>
-      <c r="G96">
-        <v>0.5</v>
+      <c r="G96" t="s">
+        <v>3</v>
       </c>
       <c r="H96" t="s">
         <v>3</v>
@@ -82631,8 +82633,8 @@
       <c r="F97" t="s">
         <v>3</v>
       </c>
-      <c r="G97">
-        <v>0.5</v>
+      <c r="G97" t="s">
+        <v>3</v>
       </c>
       <c r="H97" t="s">
         <v>3</v>
@@ -82738,8 +82740,8 @@
       <c r="F98" t="s">
         <v>3</v>
       </c>
-      <c r="G98">
-        <v>0.5</v>
+      <c r="G98" t="s">
+        <v>3</v>
       </c>
       <c r="H98" t="s">
         <v>3</v>
@@ -82845,8 +82847,8 @@
       <c r="F99" t="s">
         <v>3</v>
       </c>
-      <c r="G99">
-        <v>0.5</v>
+      <c r="G99" t="s">
+        <v>3</v>
       </c>
       <c r="H99" t="s">
         <v>3</v>
@@ -82952,8 +82954,8 @@
       <c r="F100" t="s">
         <v>3</v>
       </c>
-      <c r="G100">
-        <v>0.5</v>
+      <c r="G100" t="s">
+        <v>3</v>
       </c>
       <c r="H100" t="s">
         <v>3</v>
@@ -83059,8 +83061,8 @@
       <c r="F101" t="s">
         <v>3</v>
       </c>
-      <c r="G101">
-        <v>0.5</v>
+      <c r="G101" t="s">
+        <v>3</v>
       </c>
       <c r="H101" t="s">
         <v>3</v>
@@ -83166,8 +83168,8 @@
       <c r="F102" t="s">
         <v>3</v>
       </c>
-      <c r="G102">
-        <v>0.5</v>
+      <c r="G102" t="s">
+        <v>3</v>
       </c>
       <c r="H102" t="s">
         <v>3</v>
@@ -83273,8 +83275,8 @@
       <c r="F103" t="s">
         <v>3</v>
       </c>
-      <c r="G103">
-        <v>0.5</v>
+      <c r="G103" t="s">
+        <v>3</v>
       </c>
       <c r="H103" t="s">
         <v>3</v>
@@ -83380,8 +83382,8 @@
       <c r="F104" t="s">
         <v>3</v>
       </c>
-      <c r="G104">
-        <v>0.5</v>
+      <c r="G104" t="s">
+        <v>3</v>
       </c>
       <c r="H104" t="s">
         <v>3</v>
@@ -97818,8 +97820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630ED73F-1609-4C97-AD2B-50685FAB0D6C}">
   <dimension ref="A1:C240"/>
   <sheetViews>
-    <sheetView topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="A239" sqref="A239:XFD239"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
